--- a/BackTest/2019-10-30 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-30 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="C2" t="n">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="D2" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="E2" t="n">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="F2" t="n">
-        <v>94667.1292</v>
+        <v>26152.0726</v>
       </c>
       <c r="G2" t="n">
-        <v>4.349333333333332</v>
+        <v>23059.3979</v>
       </c>
       <c r="H2" t="n">
-        <v>4.376666666666662</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="C3" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="D3" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="E3" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="F3" t="n">
-        <v>228.8329519450801</v>
+        <v>47.9274</v>
       </c>
       <c r="G3" t="n">
-        <v>4.352666666666666</v>
+        <v>23059.3979</v>
       </c>
       <c r="H3" t="n">
-        <v>4.376333333333329</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="C4" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="D4" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="E4" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="F4" t="n">
-        <v>4000</v>
+        <v>50000</v>
       </c>
       <c r="G4" t="n">
-        <v>4.356666666666666</v>
+        <v>73059.3979</v>
       </c>
       <c r="H4" t="n">
-        <v>4.375833333333329</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.38</v>
+        <v>4.45</v>
       </c>
       <c r="C5" t="n">
-        <v>4.39</v>
+        <v>4.46</v>
       </c>
       <c r="D5" t="n">
-        <v>4.39</v>
+        <v>4.46</v>
       </c>
       <c r="E5" t="n">
-        <v>4.38</v>
+        <v>4.45</v>
       </c>
       <c r="F5" t="n">
-        <v>75125.3988</v>
+        <v>130000</v>
       </c>
       <c r="G5" t="n">
-        <v>4.361999999999999</v>
+        <v>203059.3979</v>
       </c>
       <c r="H5" t="n">
-        <v>4.375833333333329</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="C6" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="D6" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="E6" t="n">
-        <v>4.39</v>
+        <v>4.44</v>
       </c>
       <c r="F6" t="n">
-        <v>19635.5353</v>
+        <v>120753.7286</v>
       </c>
       <c r="G6" t="n">
-        <v>4.367999999999999</v>
+        <v>82305.66929999998</v>
       </c>
       <c r="H6" t="n">
-        <v>4.375999999999995</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="C7" t="n">
-        <v>4.39</v>
+        <v>4.6</v>
       </c>
       <c r="D7" t="n">
-        <v>4.39</v>
+        <v>4.6</v>
       </c>
       <c r="E7" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="F7" t="n">
-        <v>42067.648</v>
+        <v>1428389.0178</v>
       </c>
       <c r="G7" t="n">
-        <v>4.37</v>
+        <v>1510694.6871</v>
       </c>
       <c r="H7" t="n">
-        <v>4.376499999999995</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="C8" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="D8" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>115432.0844</v>
       </c>
       <c r="G8" t="n">
-        <v>4.373333333333333</v>
+        <v>1510694.6871</v>
       </c>
       <c r="H8" t="n">
-        <v>4.377333333333328</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="C9" t="n">
-        <v>4.41</v>
+        <v>4.61</v>
       </c>
       <c r="D9" t="n">
-        <v>4.41</v>
+        <v>4.61</v>
       </c>
       <c r="E9" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="F9" t="n">
-        <v>4490</v>
+        <v>181369.0388</v>
       </c>
       <c r="G9" t="n">
-        <v>4.376666666666666</v>
+        <v>1692063.7259</v>
       </c>
       <c r="H9" t="n">
-        <v>4.378333333333329</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="C10" t="n">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="D10" t="n">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="E10" t="n">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="F10" t="n">
-        <v>9405.2863</v>
+        <v>100000</v>
       </c>
       <c r="G10" t="n">
-        <v>4.389333333333334</v>
+        <v>1592063.7259</v>
       </c>
       <c r="H10" t="n">
-        <v>4.381833333333329</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -816,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.55</v>
+        <v>4.43</v>
       </c>
       <c r="C11" t="n">
-        <v>4.55</v>
+        <v>4.42</v>
       </c>
       <c r="D11" t="n">
-        <v>4.55</v>
+        <v>4.43</v>
       </c>
       <c r="E11" t="n">
-        <v>4.55</v>
+        <v>4.42</v>
       </c>
       <c r="F11" t="n">
-        <v>74596.9774</v>
+        <v>19092.8265</v>
       </c>
       <c r="G11" t="n">
-        <v>4.402</v>
+        <v>1572970.8994</v>
       </c>
       <c r="H11" t="n">
-        <v>4.384666666666662</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -854,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="C12" t="n">
-        <v>4.57</v>
+        <v>4.4</v>
       </c>
       <c r="D12" t="n">
-        <v>4.57</v>
+        <v>4.4</v>
       </c>
       <c r="E12" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="F12" t="n">
-        <v>7486.4332</v>
+        <v>60000</v>
       </c>
       <c r="G12" t="n">
-        <v>4.415999999999999</v>
+        <v>1512970.8994</v>
       </c>
       <c r="H12" t="n">
-        <v>4.387999999999995</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -892,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.52</v>
+        <v>4.38</v>
       </c>
       <c r="C13" t="n">
-        <v>4.51</v>
+        <v>4.38</v>
       </c>
       <c r="D13" t="n">
-        <v>4.52</v>
+        <v>4.38</v>
       </c>
       <c r="E13" t="n">
-        <v>4.51</v>
+        <v>4.38</v>
       </c>
       <c r="F13" t="n">
-        <v>190969.5932</v>
+        <v>90000</v>
       </c>
       <c r="G13" t="n">
-        <v>4.424</v>
+        <v>1422970.8994</v>
       </c>
       <c r="H13" t="n">
-        <v>4.389999999999996</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="C14" t="n">
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="D14" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="E14" t="n">
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="F14" t="n">
-        <v>30000</v>
+        <v>847000</v>
       </c>
       <c r="G14" t="n">
-        <v>4.428</v>
+        <v>575970.8994</v>
       </c>
       <c r="H14" t="n">
-        <v>4.390999999999996</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -968,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.44</v>
+        <v>4.29</v>
       </c>
       <c r="C15" t="n">
-        <v>4.44</v>
+        <v>4.29</v>
       </c>
       <c r="D15" t="n">
-        <v>4.44</v>
+        <v>4.29</v>
       </c>
       <c r="E15" t="n">
-        <v>4.44</v>
+        <v>4.29</v>
       </c>
       <c r="F15" t="n">
-        <v>37817.6759</v>
+        <v>100000</v>
       </c>
       <c r="G15" t="n">
-        <v>4.433333333333334</v>
+        <v>575970.8994</v>
       </c>
       <c r="H15" t="n">
-        <v>4.391833333333329</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="C16" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="D16" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="E16" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="F16" t="n">
-        <v>100000</v>
+        <v>18394.2002</v>
       </c>
       <c r="G16" t="n">
-        <v>4.438666666666666</v>
+        <v>594365.0996</v>
       </c>
       <c r="H16" t="n">
-        <v>4.392666666666663</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="C17" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="D17" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="E17" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="F17" t="n">
-        <v>550</v>
+        <v>18452.0773</v>
       </c>
       <c r="G17" t="n">
-        <v>4.446</v>
+        <v>612817.1769</v>
       </c>
       <c r="H17" t="n">
-        <v>4.39383333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1082,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.46</v>
+        <v>4.31</v>
       </c>
       <c r="C18" t="n">
-        <v>4.46</v>
+        <v>4.31</v>
       </c>
       <c r="D18" t="n">
-        <v>4.46</v>
+        <v>4.31</v>
       </c>
       <c r="E18" t="n">
-        <v>4.46</v>
+        <v>4.31</v>
       </c>
       <c r="F18" t="n">
-        <v>7189.13</v>
+        <v>58448.0171</v>
       </c>
       <c r="G18" t="n">
-        <v>4.451999999999999</v>
+        <v>554369.1598</v>
       </c>
       <c r="H18" t="n">
-        <v>4.394999999999996</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="C19" t="n">
-        <v>4.5</v>
+        <v>4.31</v>
       </c>
       <c r="D19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="E19" t="n">
-        <v>4.5</v>
+        <v>4.31</v>
       </c>
       <c r="F19" t="n">
-        <v>26467.9978</v>
+        <v>749449.4613</v>
       </c>
       <c r="G19" t="n">
-        <v>4.460666666666666</v>
+        <v>554369.1598</v>
       </c>
       <c r="H19" t="n">
-        <v>4.39683333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1158,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="C20" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="D20" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="E20" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>13875.5119</v>
       </c>
       <c r="G20" t="n">
-        <v>4.471333333333332</v>
+        <v>540493.6479</v>
       </c>
       <c r="H20" t="n">
-        <v>4.399499999999997</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.55</v>
+        <v>4.36</v>
       </c>
       <c r="C21" t="n">
-        <v>4.55</v>
+        <v>4.36</v>
       </c>
       <c r="D21" t="n">
-        <v>4.55</v>
+        <v>4.36</v>
       </c>
       <c r="E21" t="n">
-        <v>4.55</v>
+        <v>4.36</v>
       </c>
       <c r="F21" t="n">
-        <v>82</v>
+        <v>103761.2957</v>
       </c>
       <c r="G21" t="n">
-        <v>4.481999999999998</v>
+        <v>644254.9436</v>
       </c>
       <c r="H21" t="n">
-        <v>4.40233333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="C22" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="D22" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="E22" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="F22" t="n">
-        <v>173212.2222</v>
+        <v>26666.9672</v>
       </c>
       <c r="G22" t="n">
-        <v>4.489333333333332</v>
+        <v>644254.9436</v>
       </c>
       <c r="H22" t="n">
-        <v>4.404166666666664</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="C23" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="D23" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="E23" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="F23" t="n">
-        <v>60000</v>
+        <v>23360.785</v>
       </c>
       <c r="G23" t="n">
-        <v>4.494666666666665</v>
+        <v>644254.9436</v>
       </c>
       <c r="H23" t="n">
-        <v>4.40433333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="C24" t="n">
-        <v>4.49</v>
+        <v>4.35</v>
       </c>
       <c r="D24" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="E24" t="n">
-        <v>4.49</v>
+        <v>4.35</v>
       </c>
       <c r="F24" t="n">
-        <v>681821.7088</v>
+        <v>25071.4942</v>
       </c>
       <c r="G24" t="n">
-        <v>4.499999999999998</v>
+        <v>619183.4494</v>
       </c>
       <c r="H24" t="n">
-        <v>4.406666666666664</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.54</v>
+        <v>4.35</v>
       </c>
       <c r="C25" t="n">
-        <v>4.54</v>
+        <v>4.36</v>
       </c>
       <c r="D25" t="n">
-        <v>4.54</v>
+        <v>4.36</v>
       </c>
       <c r="E25" t="n">
-        <v>4.54</v>
+        <v>4.35</v>
       </c>
       <c r="F25" t="n">
-        <v>82</v>
+        <v>94667.1292</v>
       </c>
       <c r="G25" t="n">
-        <v>4.499999999999998</v>
+        <v>713850.5786</v>
       </c>
       <c r="H25" t="n">
-        <v>4.40983333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.53</v>
+        <v>4.36</v>
       </c>
       <c r="C26" t="n">
-        <v>4.53</v>
+        <v>4.36</v>
       </c>
       <c r="D26" t="n">
-        <v>4.53</v>
+        <v>4.36</v>
       </c>
       <c r="E26" t="n">
-        <v>4.53</v>
+        <v>4.36</v>
       </c>
       <c r="F26" t="n">
-        <v>38546.2555</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>4.498666666666665</v>
+        <v>713850.5786</v>
       </c>
       <c r="H26" t="n">
-        <v>4.412999999999997</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="C27" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="D27" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="E27" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="F27" t="n">
-        <v>22573.3634</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>4.495999999999998</v>
+        <v>713860.5786</v>
       </c>
       <c r="H27" t="n">
-        <v>4.416499999999997</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="C28" t="n">
-        <v>4.49</v>
+        <v>4.39</v>
       </c>
       <c r="D28" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="E28" t="n">
-        <v>4.49</v>
+        <v>4.39</v>
       </c>
       <c r="F28" t="n">
-        <v>84189.2191</v>
+        <v>1025.0569</v>
       </c>
       <c r="G28" t="n">
-        <v>4.494666666666664</v>
+        <v>713860.5786</v>
       </c>
       <c r="H28" t="n">
-        <v>4.419999999999997</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1500,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="C29" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="D29" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="E29" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="F29" t="n">
-        <v>485622.8186</v>
+        <v>18348.2146</v>
       </c>
       <c r="G29" t="n">
-        <v>4.493999999999997</v>
+        <v>695512.3640000001</v>
       </c>
       <c r="H29" t="n">
-        <v>4.421999999999997</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="C30" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="D30" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="E30" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="F30" t="n">
-        <v>1014400.5908</v>
+        <v>9482.7744</v>
       </c>
       <c r="G30" t="n">
-        <v>4.492666666666664</v>
+        <v>695512.3640000001</v>
       </c>
       <c r="H30" t="n">
-        <v>4.423499999999998</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.42</v>
+        <v>4.37</v>
       </c>
       <c r="C31" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="D31" t="n">
-        <v>4.42</v>
+        <v>4.37</v>
       </c>
       <c r="E31" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="F31" t="n">
-        <v>138696.9951</v>
+        <v>94667.1292</v>
       </c>
       <c r="G31" t="n">
-        <v>4.491333333333331</v>
+        <v>600845.2348000001</v>
       </c>
       <c r="H31" t="n">
-        <v>4.424999999999998</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1614,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="C32" t="n">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="D32" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="E32" t="n">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="F32" t="n">
-        <v>311521.8824</v>
+        <v>228.8329519450801</v>
       </c>
       <c r="G32" t="n">
-        <v>4.481333333333331</v>
+        <v>601074.0677519452</v>
       </c>
       <c r="H32" t="n">
-        <v>4.423833333333332</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="C33" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="D33" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="E33" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="n">
-        <v>4.470666666666665</v>
+        <v>601074.0677519452</v>
       </c>
       <c r="H33" t="n">
-        <v>4.423333333333332</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.39</v>
+        <v>4.38</v>
       </c>
       <c r="C34" t="n">
         <v>4.39</v>
@@ -1699,27 +1562,24 @@
         <v>4.39</v>
       </c>
       <c r="E34" t="n">
-        <v>4.39</v>
+        <v>4.38</v>
       </c>
       <c r="F34" t="n">
-        <v>228.4738041002278</v>
+        <v>75125.3988</v>
       </c>
       <c r="G34" t="n">
-        <v>4.463333333333332</v>
+        <v>676199.4665519452</v>
       </c>
       <c r="H34" t="n">
-        <v>4.424333333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="C35" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="D35" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="E35" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="F35" t="n">
-        <v>83483.4066</v>
+        <v>19635.5353</v>
       </c>
       <c r="G35" t="n">
-        <v>4.446666666666665</v>
+        <v>676199.4665519452</v>
       </c>
       <c r="H35" t="n">
-        <v>4.422999999999999</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="C36" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="D36" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="E36" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>42067.648</v>
       </c>
       <c r="G36" t="n">
-        <v>4.436666666666666</v>
+        <v>676199.4665519452</v>
       </c>
       <c r="H36" t="n">
-        <v>4.421999999999999</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="C37" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="D37" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="E37" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="F37" t="n">
-        <v>54110.633</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>4.433333333333333</v>
+        <v>676209.4665519452</v>
       </c>
       <c r="H37" t="n">
-        <v>4.421999999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="C38" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="D38" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="E38" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="F38" t="n">
-        <v>14461.5124</v>
+        <v>4490</v>
       </c>
       <c r="G38" t="n">
-        <v>4.430666666666666</v>
+        <v>676209.4665519452</v>
       </c>
       <c r="H38" t="n">
-        <v>4.419499999999998</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32</v>
+        <v>4.54</v>
       </c>
       <c r="C39" t="n">
-        <v>4.32</v>
+        <v>4.54</v>
       </c>
       <c r="D39" t="n">
-        <v>4.32</v>
+        <v>4.54</v>
       </c>
       <c r="E39" t="n">
-        <v>4.32</v>
+        <v>4.54</v>
       </c>
       <c r="F39" t="n">
-        <v>11886.3425</v>
+        <v>9405.2863</v>
       </c>
       <c r="G39" t="n">
-        <v>4.419333333333333</v>
+        <v>685614.7528519452</v>
       </c>
       <c r="H39" t="n">
-        <v>4.414833333333331</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="C40" t="n">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="D40" t="n">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="E40" t="n">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="F40" t="n">
-        <v>8357.5555</v>
+        <v>74596.9774</v>
       </c>
       <c r="G40" t="n">
-        <v>4.404666666666667</v>
+        <v>760211.7302519452</v>
       </c>
       <c r="H40" t="n">
-        <v>4.409999999999997</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.31</v>
+        <v>4.55</v>
       </c>
       <c r="C41" t="n">
-        <v>4.31</v>
+        <v>4.57</v>
       </c>
       <c r="D41" t="n">
-        <v>4.31</v>
+        <v>4.57</v>
       </c>
       <c r="E41" t="n">
-        <v>4.31</v>
+        <v>4.55</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>7486.4332</v>
       </c>
       <c r="G41" t="n">
-        <v>4.390000000000001</v>
+        <v>767698.1634519452</v>
       </c>
       <c r="H41" t="n">
-        <v>4.407999999999998</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.31</v>
+        <v>4.52</v>
       </c>
       <c r="C42" t="n">
-        <v>4.3</v>
+        <v>4.51</v>
       </c>
       <c r="D42" t="n">
-        <v>4.31</v>
+        <v>4.52</v>
       </c>
       <c r="E42" t="n">
-        <v>4.3</v>
+        <v>4.51</v>
       </c>
       <c r="F42" t="n">
-        <v>228215.9902</v>
+        <v>190969.5932</v>
       </c>
       <c r="G42" t="n">
-        <v>4.374666666666667</v>
+        <v>576728.5702519452</v>
       </c>
       <c r="H42" t="n">
-        <v>4.405999999999997</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="C43" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="D43" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="E43" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="F43" t="n">
-        <v>226.984126984127</v>
+        <v>30000</v>
       </c>
       <c r="G43" t="n">
-        <v>4.369333333333334</v>
+        <v>546728.5702519452</v>
       </c>
       <c r="H43" t="n">
-        <v>4.406166666666665</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="C44" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="D44" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="E44" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="F44" t="n">
-        <v>132458.2024</v>
+        <v>37817.6759</v>
       </c>
       <c r="G44" t="n">
-        <v>4.36</v>
+        <v>508910.8943519451</v>
       </c>
       <c r="H44" t="n">
-        <v>4.404833333333332</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="C45" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="D45" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="E45" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0009</v>
+        <v>100000</v>
       </c>
       <c r="G45" t="n">
-        <v>4.352</v>
+        <v>508910.8943519451</v>
       </c>
       <c r="H45" t="n">
-        <v>4.404999999999998</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="C46" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="D46" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="E46" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="G46" t="n">
-        <v>4.350666666666667</v>
+        <v>509460.8943519451</v>
       </c>
       <c r="H46" t="n">
-        <v>4.40683333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="C47" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="D47" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="E47" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>7189.13</v>
       </c>
       <c r="G47" t="n">
-        <v>4.349333333333334</v>
+        <v>509460.8943519451</v>
       </c>
       <c r="H47" t="n">
-        <v>4.406499999999998</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2222,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="C48" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="D48" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="E48" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>26467.9978</v>
       </c>
       <c r="G48" t="n">
-        <v>4.355333333333334</v>
+        <v>535928.8921519452</v>
       </c>
       <c r="H48" t="n">
-        <v>4.407666666666665</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2260,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="C49" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="D49" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="E49" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G49" t="n">
-        <v>4.356000000000001</v>
+        <v>535946.8921519452</v>
       </c>
       <c r="H49" t="n">
-        <v>4.409166666666664</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2298,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="C50" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="D50" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="E50" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="F50" t="n">
-        <v>35520.0776</v>
+        <v>82</v>
       </c>
       <c r="G50" t="n">
-        <v>4.360666666666669</v>
+        <v>535946.8921519452</v>
       </c>
       <c r="H50" t="n">
-        <v>4.410166666666664</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2336,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="C51" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="D51" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="E51" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>173212.2222</v>
       </c>
       <c r="G51" t="n">
-        <v>4.353333333333335</v>
+        <v>362734.6699519452</v>
       </c>
       <c r="H51" t="n">
-        <v>4.409999999999997</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="C52" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="D52" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="E52" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>60000</v>
       </c>
       <c r="G52" t="n">
-        <v>4.348000000000002</v>
+        <v>302734.6699519452</v>
       </c>
       <c r="H52" t="n">
-        <v>4.410166666666664</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.37</v>
+        <v>4.5</v>
       </c>
       <c r="C53" t="n">
-        <v>4.38</v>
+        <v>4.49</v>
       </c>
       <c r="D53" t="n">
-        <v>4.38</v>
+        <v>4.5</v>
       </c>
       <c r="E53" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="F53" t="n">
-        <v>23915.26639840183</v>
+        <v>681821.7088</v>
       </c>
       <c r="G53" t="n">
-        <v>4.343333333333335</v>
+        <v>302734.6699519452</v>
       </c>
       <c r="H53" t="n">
-        <v>4.410499999999997</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2450,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.38</v>
+        <v>4.54</v>
       </c>
       <c r="C54" t="n">
-        <v>4.39</v>
+        <v>4.54</v>
       </c>
       <c r="D54" t="n">
-        <v>4.39</v>
+        <v>4.54</v>
       </c>
       <c r="E54" t="n">
-        <v>4.38</v>
+        <v>4.54</v>
       </c>
       <c r="F54" t="n">
-        <v>39772.7272</v>
+        <v>82</v>
       </c>
       <c r="G54" t="n">
-        <v>4.348000000000002</v>
+        <v>302816.6699519452</v>
       </c>
       <c r="H54" t="n">
-        <v>4.410999999999997</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.39</v>
+        <v>4.53</v>
       </c>
       <c r="C55" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="D55" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="E55" t="n">
-        <v>4.39</v>
+        <v>4.53</v>
       </c>
       <c r="F55" t="n">
-        <v>197092.8644</v>
+        <v>38546.2555</v>
       </c>
       <c r="G55" t="n">
-        <v>4.353333333333336</v>
+        <v>264270.4144519452</v>
       </c>
       <c r="H55" t="n">
-        <v>4.411833333333329</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="C56" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="D56" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="E56" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="F56" t="n">
-        <v>18412.218</v>
+        <v>22573.3634</v>
       </c>
       <c r="G56" t="n">
-        <v>4.359333333333336</v>
+        <v>264270.4144519452</v>
       </c>
       <c r="H56" t="n">
-        <v>4.412499999999995</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="C57" t="n">
-        <v>4.4</v>
+        <v>4.49</v>
       </c>
       <c r="D57" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="E57" t="n">
-        <v>4.4</v>
+        <v>4.49</v>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>84189.2191</v>
       </c>
       <c r="G57" t="n">
-        <v>4.366000000000003</v>
+        <v>180081.1953519452</v>
       </c>
       <c r="H57" t="n">
-        <v>4.413166666666661</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2605,33 +2396,30 @@
         <v>4.45</v>
       </c>
       <c r="C58" t="n">
-        <v>4.45</v>
+        <v>4.44</v>
       </c>
       <c r="D58" t="n">
         <v>4.45</v>
       </c>
       <c r="E58" t="n">
-        <v>4.45</v>
+        <v>4.44</v>
       </c>
       <c r="F58" t="n">
-        <v>1748.3146</v>
+        <v>485622.8186</v>
       </c>
       <c r="G58" t="n">
-        <v>4.36866666666667</v>
+        <v>-305541.6232480548</v>
       </c>
       <c r="H58" t="n">
-        <v>4.414166666666661</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="C59" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="D59" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="E59" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="F59" t="n">
-        <v>100000</v>
+        <v>1014400.5908</v>
       </c>
       <c r="G59" t="n">
-        <v>4.378000000000004</v>
+        <v>-1319942.214048055</v>
       </c>
       <c r="H59" t="n">
-        <v>4.414999999999995</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.45</v>
+        <v>4.42</v>
       </c>
       <c r="C60" t="n">
-        <v>4.46</v>
+        <v>4.42</v>
       </c>
       <c r="D60" t="n">
-        <v>4.46</v>
+        <v>4.42</v>
       </c>
       <c r="E60" t="n">
-        <v>4.45</v>
+        <v>4.42</v>
       </c>
       <c r="F60" t="n">
-        <v>64884.989</v>
+        <v>138696.9951</v>
       </c>
       <c r="G60" t="n">
-        <v>4.38866666666667</v>
+        <v>-1319942.214048055</v>
       </c>
       <c r="H60" t="n">
-        <v>4.416666666666661</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="C61" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="D61" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="E61" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="F61" t="n">
-        <v>69443.20789999999</v>
+        <v>311521.8824</v>
       </c>
       <c r="G61" t="n">
-        <v>4.391333333333336</v>
+        <v>-1631464.096448055</v>
       </c>
       <c r="H61" t="n">
-        <v>4.417999999999994</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="C62" t="n">
-        <v>4.46</v>
+        <v>4.3</v>
       </c>
       <c r="D62" t="n">
-        <v>4.46</v>
+        <v>4.3</v>
       </c>
       <c r="E62" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="F62" t="n">
-        <v>83136.8821</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>4.402666666666669</v>
+        <v>-1631474.096448055</v>
       </c>
       <c r="H62" t="n">
-        <v>4.419833333333327</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="D63" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="E63" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="F63" t="n">
-        <v>24101.5695</v>
+        <v>228.4738041002278</v>
       </c>
       <c r="G63" t="n">
-        <v>4.406666666666669</v>
+        <v>-1631245.622643955</v>
       </c>
       <c r="H63" t="n">
-        <v>4.42116666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="C64" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="D64" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="E64" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="F64" t="n">
-        <v>1818</v>
+        <v>83483.4066</v>
       </c>
       <c r="G64" t="n">
-        <v>4.403333333333335</v>
+        <v>-1714729.029243955</v>
       </c>
       <c r="H64" t="n">
-        <v>4.420833333333326</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="C65" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="D65" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="E65" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="F65" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>4.408666666666668</v>
+        <v>-1714719.029243955</v>
       </c>
       <c r="H65" t="n">
-        <v>4.421833333333327</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="C66" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="D66" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="E66" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>54110.633</v>
       </c>
       <c r="G66" t="n">
-        <v>4.416666666666668</v>
+        <v>-1660608.396243955</v>
       </c>
       <c r="H66" t="n">
-        <v>4.42216666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="C67" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="D67" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="E67" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="F67" t="n">
-        <v>14126.7285</v>
+        <v>14461.5124</v>
       </c>
       <c r="G67" t="n">
-        <v>4.419333333333333</v>
+        <v>-1660608.396243955</v>
       </c>
       <c r="H67" t="n">
-        <v>4.422499999999995</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2982,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="C68" t="n">
-        <v>4.42</v>
+        <v>4.32</v>
       </c>
       <c r="D68" t="n">
-        <v>4.42</v>
+        <v>4.32</v>
       </c>
       <c r="E68" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="F68" t="n">
-        <v>111443.2602</v>
+        <v>11886.3425</v>
       </c>
       <c r="G68" t="n">
-        <v>4.422000000000001</v>
+        <v>-1672494.738743955</v>
       </c>
       <c r="H68" t="n">
-        <v>4.422666666666661</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="C69" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="D69" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="E69" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="F69" t="n">
-        <v>634391.1564</v>
+        <v>8357.5555</v>
       </c>
       <c r="G69" t="n">
-        <v>4.423333333333334</v>
+        <v>-1672494.738743955</v>
       </c>
       <c r="H69" t="n">
-        <v>4.422666666666661</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.36</v>
+        <v>4.31</v>
       </c>
       <c r="C70" t="n">
-        <v>4.35</v>
+        <v>4.31</v>
       </c>
       <c r="D70" t="n">
-        <v>4.36</v>
+        <v>4.31</v>
       </c>
       <c r="E70" t="n">
-        <v>4.35</v>
+        <v>4.31</v>
       </c>
       <c r="F70" t="n">
-        <v>70000</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>4.42</v>
+        <v>-1672504.738743955</v>
       </c>
       <c r="H70" t="n">
-        <v>4.419499999999995</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3096,36 +2848,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.36</v>
+        <v>4.31</v>
       </c>
       <c r="C71" t="n">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
       <c r="D71" t="n">
-        <v>4.36</v>
+        <v>4.31</v>
       </c>
       <c r="E71" t="n">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
       <c r="F71" t="n">
-        <v>32701.7944</v>
+        <v>228215.9902</v>
       </c>
       <c r="G71" t="n">
-        <v>4.415999999999999</v>
+        <v>-1900720.728943955</v>
       </c>
       <c r="H71" t="n">
-        <v>4.415999999999994</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,36 +2889,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="C72" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="D72" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="E72" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="F72" t="n">
-        <v>26229.2725</v>
+        <v>226.984126984127</v>
       </c>
       <c r="G72" t="n">
-        <v>4.412666666666666</v>
+        <v>-1900493.744816971</v>
       </c>
       <c r="H72" t="n">
-        <v>4.412333333333327</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,40 +2930,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="C73" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="D73" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="E73" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>132458.2024</v>
       </c>
       <c r="G73" t="n">
-        <v>4.407999999999999</v>
+        <v>-2032951.947216971</v>
       </c>
       <c r="H73" t="n">
-        <v>4.410166666666661</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,44 +2971,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="C74" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="D74" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="E74" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>0.0009</v>
       </c>
       <c r="G74" t="n">
-        <v>4.404666666666666</v>
+        <v>-2032951.947216971</v>
       </c>
       <c r="H74" t="n">
-        <v>4.409166666666661</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,44 +3010,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="C75" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="D75" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="E75" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="F75" t="n">
-        <v>12.1004</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>4.399333333333332</v>
+        <v>-2032941.947216971</v>
       </c>
       <c r="H75" t="n">
-        <v>4.408166666666661</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="L75" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,40 +3051,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="C76" t="n">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="D76" t="n">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="E76" t="n">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="F76" t="n">
-        <v>9.8996</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>4.395333333333332</v>
+        <v>-2032951.947216971</v>
       </c>
       <c r="H76" t="n">
-        <v>4.407166666666661</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,42 +3092,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="C77" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="D77" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="E77" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="F77" t="n">
-        <v>52880.5113</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>4.389999999999999</v>
+        <v>-2032941.947216971</v>
       </c>
       <c r="H77" t="n">
-        <v>4.405833333333328</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,44 +3133,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C78" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D78" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E78" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="F78" t="n">
-        <v>34975.066</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>4.383333333333331</v>
+        <v>-2032931.947216971</v>
       </c>
       <c r="H78" t="n">
-        <v>4.403999999999995</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,40 +3174,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="C79" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="D79" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="E79" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="F79" t="n">
-        <v>45603.9342</v>
+        <v>35520.0776</v>
       </c>
       <c r="G79" t="n">
-        <v>4.385999999999998</v>
+        <v>-2068452.024816971</v>
       </c>
       <c r="H79" t="n">
-        <v>4.402166666666662</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,42 +3213,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.39</v>
+        <v>4.29</v>
       </c>
       <c r="C80" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="D80" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="E80" t="n">
-        <v>4.39</v>
+        <v>4.29</v>
       </c>
       <c r="F80" t="n">
-        <v>117167.4115</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>4.382666666666665</v>
+        <v>-2068462.024816971</v>
       </c>
       <c r="H80" t="n">
-        <v>4.399666666666661</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3524,42 +3254,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="C81" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="D81" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="E81" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="F81" t="n">
-        <v>26561.7628</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>4.382666666666665</v>
+        <v>-2068452.024816971</v>
       </c>
       <c r="H81" t="n">
-        <v>4.397333333333328</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3568,36 +3293,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="C82" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="D82" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="E82" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="F82" t="n">
-        <v>20194.858</v>
+        <v>23915.26639840183</v>
       </c>
       <c r="G82" t="n">
-        <v>4.385999999999998</v>
+        <v>-2044536.758418569</v>
       </c>
       <c r="H82" t="n">
-        <v>4.396666666666661</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,36 +3332,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="C83" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="D83" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="E83" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>39772.7272</v>
       </c>
       <c r="G83" t="n">
-        <v>4.377999999999998</v>
+        <v>-2004764.031218569</v>
       </c>
       <c r="H83" t="n">
-        <v>4.393499999999994</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,36 +3371,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="C84" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="D84" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="E84" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>197092.8644</v>
       </c>
       <c r="G84" t="n">
-        <v>4.380666666666666</v>
+        <v>-1807671.166818568</v>
       </c>
       <c r="H84" t="n">
-        <v>4.392833333333328</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3682,36 +3410,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="C85" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="E85" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="F85" t="n">
-        <v>2965.3932</v>
+        <v>18412.218</v>
       </c>
       <c r="G85" t="n">
-        <v>4.387333333333332</v>
+        <v>-1807671.166818568</v>
       </c>
       <c r="H85" t="n">
-        <v>4.391333333333327</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,36 +3449,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="C86" t="n">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="D86" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="E86" t="n">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="F86" t="n">
-        <v>162771.3457</v>
+        <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>4.382</v>
+        <v>-1807671.166818568</v>
       </c>
       <c r="H86" t="n">
-        <v>4.386833333333327</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,24 +3500,25 @@
         <v>4.45</v>
       </c>
       <c r="F87" t="n">
-        <v>224.9438202247191</v>
+        <v>1748.3146</v>
       </c>
       <c r="G87" t="n">
-        <v>4.388666666666666</v>
+        <v>-1805922.852218569</v>
       </c>
       <c r="H87" t="n">
-        <v>4.385499999999994</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3796,36 +3527,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.25</v>
+        <v>4.44</v>
       </c>
       <c r="C88" t="n">
-        <v>4.25</v>
+        <v>4.44</v>
       </c>
       <c r="D88" t="n">
-        <v>4.25</v>
+        <v>4.44</v>
       </c>
       <c r="E88" t="n">
-        <v>4.25</v>
+        <v>4.44</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="G88" t="n">
-        <v>4.38</v>
+        <v>-1905922.852218569</v>
       </c>
       <c r="H88" t="n">
-        <v>4.381499999999994</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,36 +3566,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.26</v>
+        <v>4.45</v>
       </c>
       <c r="C89" t="n">
-        <v>4.26</v>
+        <v>4.46</v>
       </c>
       <c r="D89" t="n">
-        <v>4.26</v>
+        <v>4.46</v>
       </c>
       <c r="E89" t="n">
-        <v>4.26</v>
+        <v>4.45</v>
       </c>
       <c r="F89" t="n">
-        <v>60036.0373</v>
+        <v>64884.989</v>
       </c>
       <c r="G89" t="n">
-        <v>4.371333333333334</v>
+        <v>-1841037.863218568</v>
       </c>
       <c r="H89" t="n">
-        <v>4.378499999999994</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,40 +3605,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.27</v>
+        <v>4.44</v>
       </c>
       <c r="C90" t="n">
-        <v>4.27</v>
+        <v>4.44</v>
       </c>
       <c r="D90" t="n">
-        <v>4.27</v>
+        <v>4.44</v>
       </c>
       <c r="E90" t="n">
-        <v>4.27</v>
+        <v>4.44</v>
       </c>
       <c r="F90" t="n">
-        <v>926</v>
+        <v>69443.20789999999</v>
       </c>
       <c r="G90" t="n">
-        <v>4.364000000000001</v>
+        <v>-1910481.071118569</v>
       </c>
       <c r="H90" t="n">
-        <v>4.375999999999993</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,44 +3644,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="C91" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="D91" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="E91" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>83136.8821</v>
       </c>
       <c r="G91" t="n">
-        <v>4.366000000000001</v>
+        <v>-1827344.189018568</v>
       </c>
       <c r="H91" t="n">
-        <v>4.375833333333327</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,44 +3683,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.42</v>
+        <v>4.45</v>
       </c>
       <c r="C92" t="n">
-        <v>4.43</v>
+        <v>4.45</v>
       </c>
       <c r="D92" t="n">
-        <v>4.43</v>
+        <v>4.45</v>
       </c>
       <c r="E92" t="n">
-        <v>4.42</v>
+        <v>4.45</v>
       </c>
       <c r="F92" t="n">
-        <v>188567.2686</v>
+        <v>24101.5695</v>
       </c>
       <c r="G92" t="n">
-        <v>4.369333333333334</v>
+        <v>-1851445.758518568</v>
       </c>
       <c r="H92" t="n">
-        <v>4.377833333333327</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,36 +3722,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="C93" t="n">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="D93" t="n">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="E93" t="n">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="F93" t="n">
-        <v>48596.3882</v>
+        <v>1818</v>
       </c>
       <c r="G93" t="n">
-        <v>4.374666666666669</v>
+        <v>-1853263.758518568</v>
       </c>
       <c r="H93" t="n">
-        <v>4.379999999999994</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,24 +3773,25 @@
         <v>4.45</v>
       </c>
       <c r="F94" t="n">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="G94" t="n">
-        <v>4.378666666666669</v>
+        <v>-1851263.758518568</v>
       </c>
       <c r="H94" t="n">
-        <v>4.380999999999994</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4082,36 +3800,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="C95" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="D95" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="E95" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="F95" t="n">
-        <v>65182.922</v>
+        <v>5000</v>
       </c>
       <c r="G95" t="n">
-        <v>4.380000000000002</v>
+        <v>-1856263.758518568</v>
       </c>
       <c r="H95" t="n">
-        <v>4.382999999999994</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,36 +3839,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="C96" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="D96" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="E96" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="F96" t="n">
-        <v>12</v>
+        <v>14126.7285</v>
       </c>
       <c r="G96" t="n">
-        <v>4.383333333333336</v>
+        <v>-1856263.758518568</v>
       </c>
       <c r="H96" t="n">
-        <v>4.383999999999994</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,36 +3878,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="C97" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="D97" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="E97" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="F97" t="n">
-        <v>47.2534</v>
+        <v>111443.2602</v>
       </c>
       <c r="G97" t="n">
-        <v>4.382000000000002</v>
+        <v>-1744820.498318569</v>
       </c>
       <c r="H97" t="n">
-        <v>4.383833333333327</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,36 +3917,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="C98" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="D98" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="E98" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="F98" t="n">
-        <v>160.6674</v>
+        <v>634391.1564</v>
       </c>
       <c r="G98" t="n">
-        <v>4.390000000000002</v>
+        <v>-2379211.654718569</v>
       </c>
       <c r="H98" t="n">
-        <v>4.383333333333328</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,36 +3956,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="C99" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="D99" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="E99" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="F99" t="n">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="G99" t="n">
-        <v>4.388000000000003</v>
+        <v>-2449211.654718569</v>
       </c>
       <c r="H99" t="n">
-        <v>4.384999999999994</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,36 +3995,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="C100" t="n">
-        <v>4.42</v>
+        <v>4.34</v>
       </c>
       <c r="D100" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="E100" t="n">
-        <v>4.42</v>
+        <v>4.34</v>
       </c>
       <c r="F100" t="n">
-        <v>12465.1583</v>
+        <v>32701.7944</v>
       </c>
       <c r="G100" t="n">
-        <v>4.386000000000002</v>
+        <v>-2481913.449118569</v>
       </c>
       <c r="H100" t="n">
-        <v>4.386666666666661</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,36 +4034,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="C101" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="D101" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="E101" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="F101" t="n">
-        <v>23855.4782</v>
+        <v>26229.2725</v>
       </c>
       <c r="G101" t="n">
-        <v>4.393333333333335</v>
+        <v>-2455684.176618569</v>
       </c>
       <c r="H101" t="n">
-        <v>4.387666666666662</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,40 +4073,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="C102" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="D102" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="E102" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="F102" t="n">
-        <v>59201.7414</v>
+        <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>4.388000000000003</v>
+        <v>-2455673.176618569</v>
       </c>
       <c r="H102" t="n">
-        <v>4.388833333333328</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L102" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,44 +4112,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="C103" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="D103" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="E103" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="F103" t="n">
-        <v>5156.5113</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>4.396666666666669</v>
+        <v>-2455663.176618569</v>
       </c>
       <c r="H103" t="n">
-        <v>4.388333333333327</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L103" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,44 +4151,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="C104" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="D104" t="n">
-        <v>4.41</v>
+        <v>4.38</v>
       </c>
       <c r="E104" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="F104" t="n">
-        <v>785326.5227</v>
+        <v>12.1004</v>
       </c>
       <c r="G104" t="n">
-        <v>4.406000000000002</v>
+        <v>-2455675.277018568</v>
       </c>
       <c r="H104" t="n">
-        <v>4.389999999999994</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="L104" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,36 +4190,1178 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F105" t="n">
+        <v>9.8996</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2455675.277018568</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F106" t="n">
+        <v>52880.5113</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-2455675.277018568</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F107" t="n">
+        <v>34975.066</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2490650.343018569</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F108" t="n">
+        <v>45603.9342</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-2445046.408818569</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F109" t="n">
+        <v>117167.4115</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2327878.997318569</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F110" t="n">
+        <v>26561.7628</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2301317.234518568</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F111" t="n">
+        <v>20194.858</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2281122.376518568</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>20</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2281142.376518568</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2281132.376518568</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2965.3932</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2281132.376518568</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F115" t="n">
+        <v>162771.3457</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2443903.722218568</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F116" t="n">
+        <v>224.9438202247191</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2443678.778398344</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2443688.778398344</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F118" t="n">
+        <v>60036.0373</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2383652.741098344</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F119" t="n">
+        <v>926</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2382726.741098344</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2382716.741098344</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C121" t="n">
         <v>4.43</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D121" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F121" t="n">
+        <v>188567.2686</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2194149.472498344</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F122" t="n">
+        <v>48596.3882</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2194149.472498344</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2194137.472498344</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F124" t="n">
+        <v>65182.922</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2259320.394498344</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2259308.394498344</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>4.44</v>
       </c>
-      <c r="D105" t="n">
+      <c r="C126" t="n">
         <v>4.44</v>
       </c>
-      <c r="E105" t="n">
+      <c r="D126" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F126" t="n">
+        <v>47.2534</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2259355.647898343</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F127" t="n">
+        <v>160.6674</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2259516.315298344</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F128" t="n">
+        <v>90000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2259516.315298344</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12465.1583</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2259516.315298344</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F130" t="n">
+        <v>23855.4782</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2283371.793498343</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F131" t="n">
+        <v>59201.7414</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2283371.793498343</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>4.43</v>
       </c>
-      <c r="F105" t="n">
+      <c r="C132" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5156.5113</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2278215.282198343</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>785326.5227</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1492888.759498343</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F134" t="n">
         <v>22297.78301261261</v>
       </c>
-      <c r="G105" t="n">
-        <v>4.417333333333335</v>
-      </c>
-      <c r="H105" t="n">
-        <v>4.392333333333327</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="G134" t="n">
+        <v>-1470590.976485731</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-30 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>26152.0726</v>
       </c>
       <c r="G2" t="n">
-        <v>23059.3979</v>
+        <v>4.369500000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>47.9274</v>
       </c>
       <c r="G3" t="n">
-        <v>23059.3979</v>
+        <v>4.366500000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>50000</v>
       </c>
       <c r="G4" t="n">
-        <v>73059.3979</v>
+        <v>4.366000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>130000</v>
       </c>
       <c r="G5" t="n">
-        <v>203059.3979</v>
+        <v>4.369000000000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>120753.7286</v>
       </c>
       <c r="G6" t="n">
-        <v>82305.66929999998</v>
+        <v>4.372000000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>1428389.0178</v>
       </c>
       <c r="G7" t="n">
-        <v>1510694.6871</v>
+        <v>4.375000000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>115432.0844</v>
       </c>
       <c r="G8" t="n">
-        <v>1510694.6871</v>
+        <v>4.385500000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>181369.0388</v>
       </c>
       <c r="G9" t="n">
-        <v>1692063.7259</v>
+        <v>4.396000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>100000</v>
       </c>
       <c r="G10" t="n">
-        <v>1592063.7259</v>
+        <v>4.398000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>19092.8265</v>
       </c>
       <c r="G11" t="n">
-        <v>1572970.8994</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>60000</v>
       </c>
       <c r="G12" t="n">
-        <v>1512970.8994</v>
+        <v>4.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>90000</v>
       </c>
       <c r="G13" t="n">
-        <v>1422970.8994</v>
+        <v>4.3955</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>847000</v>
       </c>
       <c r="G14" t="n">
-        <v>575970.8994</v>
+        <v>4.396000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>100000</v>
       </c>
       <c r="G15" t="n">
-        <v>575970.8994</v>
+        <v>4.393500000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>18394.2002</v>
       </c>
       <c r="G16" t="n">
-        <v>594365.0996</v>
+        <v>4.392500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>18452.0773</v>
       </c>
       <c r="G17" t="n">
-        <v>612817.1769</v>
+        <v>4.393500000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>58448.0171</v>
       </c>
       <c r="G18" t="n">
-        <v>554369.1598</v>
+        <v>4.393000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>749449.4613</v>
       </c>
       <c r="G19" t="n">
-        <v>554369.1598</v>
+        <v>4.393000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>13875.5119</v>
       </c>
       <c r="G20" t="n">
-        <v>540493.6479</v>
+        <v>4.391500000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>103761.2957</v>
       </c>
       <c r="G21" t="n">
-        <v>644254.9436</v>
+        <v>4.390500000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>26666.9672</v>
       </c>
       <c r="G22" t="n">
-        <v>644254.9436</v>
+        <v>4.392000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>23360.785</v>
       </c>
       <c r="G23" t="n">
-        <v>644254.9436</v>
+        <v>4.393500000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>25071.4942</v>
       </c>
       <c r="G24" t="n">
-        <v>619183.4494</v>
+        <v>4.392000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>94667.1292</v>
       </c>
       <c r="G25" t="n">
-        <v>713850.5786</v>
+        <v>4.387</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>713850.5786</v>
+        <v>4.3825</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>713860.5786</v>
+        <v>4.3795</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>1025.0569</v>
       </c>
       <c r="G28" t="n">
-        <v>713860.5786</v>
+        <v>4.369000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>18348.2146</v>
       </c>
       <c r="G29" t="n">
-        <v>695512.3640000001</v>
+        <v>4.357000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>9482.7744</v>
       </c>
       <c r="G30" t="n">
-        <v>695512.3640000001</v>
+        <v>4.353500000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>94667.1292</v>
       </c>
       <c r="G31" t="n">
-        <v>600845.2348000001</v>
+        <v>4.350500000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>228.8329519450801</v>
       </c>
       <c r="G32" t="n">
-        <v>601074.0677519452</v>
+        <v>4.349000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>4000</v>
       </c>
       <c r="G33" t="n">
-        <v>601074.0677519452</v>
+        <v>4.348500000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>75125.3988</v>
       </c>
       <c r="G34" t="n">
-        <v>676199.4665519452</v>
+        <v>4.349500000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>19635.5353</v>
       </c>
       <c r="G35" t="n">
-        <v>676199.4665519452</v>
+        <v>4.354500000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>42067.648</v>
       </c>
       <c r="G36" t="n">
-        <v>676199.4665519452</v>
+        <v>4.358500000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>676209.4665519452</v>
+        <v>4.363000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>4490</v>
       </c>
       <c r="G38" t="n">
-        <v>676209.4665519452</v>
+        <v>4.368</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>9405.2863</v>
       </c>
       <c r="G39" t="n">
-        <v>685614.7528519452</v>
+        <v>4.378500000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>74596.9774</v>
       </c>
       <c r="G40" t="n">
-        <v>760211.7302519452</v>
+        <v>4.391000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>7486.4332</v>
       </c>
       <c r="G41" t="n">
-        <v>767698.1634519452</v>
+        <v>4.400500000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>190969.5932</v>
       </c>
       <c r="G42" t="n">
-        <v>576728.5702519452</v>
+        <v>4.408500000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,13 +1929,13 @@
         <v>30000</v>
       </c>
       <c r="G43" t="n">
-        <v>546728.5702519452</v>
+        <v>4.413000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,13 +1965,13 @@
         <v>37817.6759</v>
       </c>
       <c r="G44" t="n">
-        <v>508910.8943519451</v>
+        <v>4.417500000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,13 +2001,13 @@
         <v>100000</v>
       </c>
       <c r="G45" t="n">
-        <v>508910.8943519451</v>
+        <v>4.422000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>550</v>
       </c>
       <c r="G46" t="n">
-        <v>509460.8943519451</v>
+        <v>4.427000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>7189.13</v>
       </c>
       <c r="G47" t="n">
-        <v>509460.8943519451</v>
+        <v>4.4305</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,13 +2109,13 @@
         <v>26467.9978</v>
       </c>
       <c r="G48" t="n">
-        <v>535928.8921519452</v>
+        <v>4.436000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,13 +2145,13 @@
         <v>18</v>
       </c>
       <c r="G49" t="n">
-        <v>535946.8921519452</v>
+        <v>4.445500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>82</v>
       </c>
       <c r="G50" t="n">
-        <v>535946.8921519452</v>
+        <v>4.455</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>173212.2222</v>
       </c>
       <c r="G51" t="n">
-        <v>362734.6699519452</v>
+        <v>4.4615</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,13 +2253,13 @@
         <v>60000</v>
       </c>
       <c r="G52" t="n">
-        <v>302734.6699519452</v>
+        <v>4.467499999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>681821.7088</v>
       </c>
       <c r="G53" t="n">
-        <v>302734.6699519452</v>
+        <v>4.473999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2325,7 @@
         <v>82</v>
       </c>
       <c r="G54" t="n">
-        <v>302816.6699519452</v>
+        <v>4.482</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,13 +2361,13 @@
         <v>38546.2555</v>
       </c>
       <c r="G55" t="n">
-        <v>264270.4144519452</v>
+        <v>4.489</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,7 +2397,7 @@
         <v>22573.3634</v>
       </c>
       <c r="G56" t="n">
-        <v>264270.4144519452</v>
+        <v>4.496</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,7 +2433,7 @@
         <v>84189.2191</v>
       </c>
       <c r="G57" t="n">
-        <v>180081.1953519452</v>
+        <v>4.502000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,13 +2469,13 @@
         <v>485622.8186</v>
       </c>
       <c r="G58" t="n">
-        <v>-305541.6232480548</v>
+        <v>4.504</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>1014400.5908</v>
       </c>
       <c r="G59" t="n">
-        <v>-1319942.214048055</v>
+        <v>4.498500000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,7 +2541,7 @@
         <v>138696.9951</v>
       </c>
       <c r="G60" t="n">
-        <v>-1319942.214048055</v>
+        <v>4.492000000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2513,7 +2577,7 @@
         <v>311521.8824</v>
       </c>
       <c r="G61" t="n">
-        <v>-1631464.096448055</v>
+        <v>4.482500000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2548,7 +2613,7 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>-1631474.096448055</v>
+        <v>4.471500000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,7 +2649,7 @@
         <v>228.4738041002278</v>
       </c>
       <c r="G63" t="n">
-        <v>-1631245.622643955</v>
+        <v>4.468500000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2618,7 +2685,7 @@
         <v>83483.4066</v>
       </c>
       <c r="G64" t="n">
-        <v>-1714729.029243955</v>
+        <v>4.461500000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,7 +2721,7 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-1714719.029243955</v>
+        <v>4.459500000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,7 +2757,7 @@
         <v>54110.633</v>
       </c>
       <c r="G66" t="n">
-        <v>-1660608.396243955</v>
+        <v>4.459000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,7 +2793,7 @@
         <v>14461.5124</v>
       </c>
       <c r="G67" t="n">
-        <v>-1660608.396243955</v>
+        <v>4.459000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,7 +2829,7 @@
         <v>11886.3425</v>
       </c>
       <c r="G68" t="n">
-        <v>-1672494.738743955</v>
+        <v>4.450000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,7 +2865,7 @@
         <v>8357.5555</v>
       </c>
       <c r="G69" t="n">
-        <v>-1672494.738743955</v>
+        <v>4.438500000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2828,7 +2901,7 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>-1672504.738743955</v>
+        <v>4.426500000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2863,7 +2937,7 @@
         <v>228215.9902</v>
       </c>
       <c r="G71" t="n">
-        <v>-1900720.728943955</v>
+        <v>4.417000000000002</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -2883,6 +2957,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2904,7 +2979,7 @@
         <v>226.984126984127</v>
       </c>
       <c r="G72" t="n">
-        <v>-1900493.744816971</v>
+        <v>4.413000000000002</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
@@ -2924,6 +2999,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2945,7 +3021,7 @@
         <v>132458.2024</v>
       </c>
       <c r="G73" t="n">
-        <v>-2032951.947216971</v>
+        <v>4.403000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -2965,6 +3041,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2986,7 +3063,7 @@
         <v>0.0009</v>
       </c>
       <c r="G74" t="n">
-        <v>-2032951.947216971</v>
+        <v>4.391000000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3004,6 +3081,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3025,7 +3103,7 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>-2032941.947216971</v>
+        <v>4.384500000000001</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -3045,6 +3123,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3066,7 +3145,7 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>-2032951.947216971</v>
+        <v>4.372500000000001</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -3086,6 +3165,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3107,7 +3187,7 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>-2032941.947216971</v>
+        <v>4.365500000000002</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3127,6 +3207,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3148,7 +3229,7 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>-2032931.947216971</v>
+        <v>4.363000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -3168,6 +3249,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3189,7 +3271,7 @@
         <v>35520.0776</v>
       </c>
       <c r="G79" t="n">
-        <v>-2068452.024816971</v>
+        <v>4.356500000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3207,6 +3289,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3228,7 +3311,7 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>-2068462.024816971</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -3248,6 +3331,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3269,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-2068452.024816971</v>
+        <v>4.350500000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3287,6 +3371,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3308,7 +3393,7 @@
         <v>23915.26639840183</v>
       </c>
       <c r="G82" t="n">
-        <v>-2044536.758418569</v>
+        <v>4.354000000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3326,6 +3411,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3347,7 +3433,7 @@
         <v>39772.7272</v>
       </c>
       <c r="G83" t="n">
-        <v>-2004764.031218569</v>
+        <v>4.353500000000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3365,6 +3451,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3386,7 +3473,7 @@
         <v>197092.8644</v>
       </c>
       <c r="G84" t="n">
-        <v>-1807671.166818568</v>
+        <v>4.358000000000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3404,6 +3491,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3425,7 +3513,7 @@
         <v>18412.218</v>
       </c>
       <c r="G85" t="n">
-        <v>-1807671.166818568</v>
+        <v>4.358000000000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3443,6 +3531,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3464,7 +3553,7 @@
         <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>-1807671.166818568</v>
+        <v>4.355500000000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3482,6 +3571,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3503,7 +3593,7 @@
         <v>1748.3146</v>
       </c>
       <c r="G87" t="n">
-        <v>-1805922.852218569</v>
+        <v>4.355000000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3521,6 +3611,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3542,7 +3633,7 @@
         <v>100000</v>
       </c>
       <c r="G88" t="n">
-        <v>-1905922.852218569</v>
+        <v>4.361000000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3560,6 +3651,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3581,7 +3673,7 @@
         <v>64884.989</v>
       </c>
       <c r="G89" t="n">
-        <v>-1841037.863218568</v>
+        <v>4.367500000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3599,6 +3691,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3620,7 +3713,7 @@
         <v>69443.20789999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-1910481.071118569</v>
+        <v>4.374000000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3638,6 +3731,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3659,7 +3753,7 @@
         <v>83136.8821</v>
       </c>
       <c r="G91" t="n">
-        <v>-1827344.189018568</v>
+        <v>4.381000000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3677,6 +3771,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,7 +3793,7 @@
         <v>24101.5695</v>
       </c>
       <c r="G92" t="n">
-        <v>-1851445.758518568</v>
+        <v>4.383000000000003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3716,6 +3811,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3737,7 +3833,7 @@
         <v>1818</v>
       </c>
       <c r="G93" t="n">
-        <v>-1853263.758518568</v>
+        <v>4.385500000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3755,6 +3851,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3776,7 +3873,7 @@
         <v>2000</v>
       </c>
       <c r="G94" t="n">
-        <v>-1851263.758518568</v>
+        <v>4.393000000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3794,6 +3891,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3815,7 +3913,7 @@
         <v>5000</v>
       </c>
       <c r="G95" t="n">
-        <v>-1856263.758518568</v>
+        <v>4.393500000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3833,6 +3931,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3854,7 +3953,7 @@
         <v>14126.7285</v>
       </c>
       <c r="G96" t="n">
-        <v>-1856263.758518568</v>
+        <v>4.399500000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3872,6 +3971,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3893,7 +3993,7 @@
         <v>111443.2602</v>
       </c>
       <c r="G97" t="n">
-        <v>-1744820.498318569</v>
+        <v>4.400500000000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3911,6 +4011,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3932,7 +4033,7 @@
         <v>634391.1564</v>
       </c>
       <c r="G98" t="n">
-        <v>-2379211.654718569</v>
+        <v>4.401000000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3950,6 +4051,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3971,7 +4073,7 @@
         <v>70000</v>
       </c>
       <c r="G99" t="n">
-        <v>-2449211.654718569</v>
+        <v>4.404000000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3989,6 +4091,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4010,7 +4113,7 @@
         <v>32701.7944</v>
       </c>
       <c r="G100" t="n">
-        <v>-2481913.449118569</v>
+        <v>4.407500000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4028,6 +4131,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4049,7 +4153,7 @@
         <v>26229.2725</v>
       </c>
       <c r="G101" t="n">
-        <v>-2455684.176618569</v>
+        <v>4.4065</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4067,6 +4171,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4088,7 +4193,7 @@
         <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>-2455673.176618569</v>
+        <v>4.407</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4106,6 +4211,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4127,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>-2455663.176618569</v>
+        <v>4.407500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4145,6 +4251,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4166,7 +4273,7 @@
         <v>12.1004</v>
       </c>
       <c r="G104" t="n">
-        <v>-2455675.277018568</v>
+        <v>4.407</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4184,6 +4291,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4205,7 +4313,7 @@
         <v>9.8996</v>
       </c>
       <c r="G105" t="n">
-        <v>-2455675.277018568</v>
+        <v>4.406</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4223,6 +4331,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4244,7 +4353,7 @@
         <v>52880.5113</v>
       </c>
       <c r="G106" t="n">
-        <v>-2455675.277018568</v>
+        <v>4.404999999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4262,6 +4371,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4283,7 +4393,7 @@
         <v>34975.066</v>
       </c>
       <c r="G107" t="n">
-        <v>-2490650.343018569</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4301,6 +4411,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4322,7 +4433,7 @@
         <v>45603.9342</v>
       </c>
       <c r="G108" t="n">
-        <v>-2445046.408818569</v>
+        <v>4.397499999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4340,6 +4451,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4361,7 +4473,7 @@
         <v>117167.4115</v>
       </c>
       <c r="G109" t="n">
-        <v>-2327878.997318569</v>
+        <v>4.394499999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4379,6 +4491,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4400,7 +4513,7 @@
         <v>26561.7628</v>
       </c>
       <c r="G110" t="n">
-        <v>-2301317.234518568</v>
+        <v>4.392999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4418,6 +4531,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4439,7 +4553,7 @@
         <v>20194.858</v>
       </c>
       <c r="G111" t="n">
-        <v>-2281122.376518568</v>
+        <v>4.390999999999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4457,6 +4571,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4478,7 +4593,7 @@
         <v>20</v>
       </c>
       <c r="G112" t="n">
-        <v>-2281142.376518568</v>
+        <v>4.383499999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4496,6 +4611,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4517,7 +4633,7 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>-2281132.376518568</v>
+        <v>4.388499999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4535,6 +4651,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4556,7 +4673,7 @@
         <v>2965.3932</v>
       </c>
       <c r="G114" t="n">
-        <v>-2281132.376518568</v>
+        <v>4.388499999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4574,6 +4691,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4595,7 +4713,7 @@
         <v>162771.3457</v>
       </c>
       <c r="G115" t="n">
-        <v>-2443903.722218568</v>
+        <v>4.382999999999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4613,6 +4731,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4634,7 +4753,7 @@
         <v>224.9438202247191</v>
       </c>
       <c r="G116" t="n">
-        <v>-2443678.778398344</v>
+        <v>4.384999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4652,6 +4771,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4673,7 +4793,7 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>-2443688.778398344</v>
+        <v>4.376999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4691,6 +4811,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4712,7 +4833,7 @@
         <v>60036.0373</v>
       </c>
       <c r="G118" t="n">
-        <v>-2383652.741098344</v>
+        <v>4.369499999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4730,6 +4851,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4751,7 +4873,7 @@
         <v>926</v>
       </c>
       <c r="G119" t="n">
-        <v>-2382726.741098344</v>
+        <v>4.364999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4769,6 +4891,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4790,7 +4913,7 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>-2382716.741098344</v>
+        <v>4.367499999999999</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4810,6 +4933,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4831,7 +4955,7 @@
         <v>188567.2686</v>
       </c>
       <c r="G121" t="n">
-        <v>-2194149.472498344</v>
+        <v>4.371</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4849,6 +4973,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4870,7 +4995,7 @@
         <v>48596.3882</v>
       </c>
       <c r="G122" t="n">
-        <v>-2194149.472498344</v>
+        <v>4.3735</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4890,6 +5015,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4911,7 +5037,7 @@
         <v>12</v>
       </c>
       <c r="G123" t="n">
-        <v>-2194137.472498344</v>
+        <v>4.3765</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4929,6 +5055,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4950,7 +5077,7 @@
         <v>65182.922</v>
       </c>
       <c r="G124" t="n">
-        <v>-2259320.394498344</v>
+        <v>4.380000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4968,6 +5095,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4989,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="G125" t="n">
-        <v>-2259308.394498344</v>
+        <v>4.384</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5007,6 +5135,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5028,7 +5157,7 @@
         <v>47.2534</v>
       </c>
       <c r="G126" t="n">
-        <v>-2259355.647898343</v>
+        <v>4.387</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5046,6 +5175,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5067,7 +5197,7 @@
         <v>160.6674</v>
       </c>
       <c r="G127" t="n">
-        <v>-2259516.315298344</v>
+        <v>4.390500000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5085,6 +5215,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5106,7 +5237,7 @@
         <v>90000</v>
       </c>
       <c r="G128" t="n">
-        <v>-2259516.315298344</v>
+        <v>4.392000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5124,6 +5255,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5145,7 +5277,7 @@
         <v>12465.1583</v>
       </c>
       <c r="G129" t="n">
-        <v>-2259516.315298344</v>
+        <v>4.393500000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5163,6 +5295,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5184,7 +5317,7 @@
         <v>23855.4782</v>
       </c>
       <c r="G130" t="n">
-        <v>-2283371.793498343</v>
+        <v>4.391500000000002</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
@@ -5204,6 +5337,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5225,7 +5359,7 @@
         <v>59201.7414</v>
       </c>
       <c r="G131" t="n">
-        <v>-2283371.793498343</v>
+        <v>4.389500000000002</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5243,6 +5377,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5264,7 +5399,7 @@
         <v>5156.5113</v>
       </c>
       <c r="G132" t="n">
-        <v>-2278215.282198343</v>
+        <v>4.396000000000002</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -5284,6 +5419,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5305,7 +5441,7 @@
         <v>785326.5227</v>
       </c>
       <c r="G133" t="n">
-        <v>-1492888.759498343</v>
+        <v>4.393500000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5323,6 +5459,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5344,7 +5481,7 @@
         <v>22297.78301261261</v>
       </c>
       <c r="G134" t="n">
-        <v>-1470590.976485731</v>
+        <v>4.392500000000002</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -5364,6 +5501,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-30 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="C2" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="E2" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="F2" t="n">
-        <v>26152.0726</v>
+        <v>18032.3191</v>
       </c>
       <c r="G2" t="n">
-        <v>4.369500000000001</v>
+        <v>76278.07019999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="C3" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="D3" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="E3" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="F3" t="n">
-        <v>47.9274</v>
+        <v>1163.5587</v>
       </c>
       <c r="G3" t="n">
-        <v>4.366500000000001</v>
+        <v>75114.51149999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         <v>4.38</v>
       </c>
       <c r="F4" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>4.366000000000001</v>
+        <v>75014.51149999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.45</v>
+        <v>4.37</v>
       </c>
       <c r="C5" t="n">
-        <v>4.46</v>
+        <v>4.36</v>
       </c>
       <c r="D5" t="n">
-        <v>4.46</v>
+        <v>4.37</v>
       </c>
       <c r="E5" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="F5" t="n">
-        <v>130000</v>
+        <v>621.7163</v>
       </c>
       <c r="G5" t="n">
-        <v>4.369000000000002</v>
+        <v>74392.79519999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,31 +582,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="C6" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="D6" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="E6" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="F6" t="n">
-        <v>120753.7286</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="n">
-        <v>4.372000000000002</v>
+        <v>74392.79519999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.36</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +622,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="C7" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="D7" t="n">
-        <v>4.6</v>
+        <v>4.36</v>
       </c>
       <c r="E7" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="F7" t="n">
-        <v>1428389.0178</v>
+        <v>13612.3091</v>
       </c>
       <c r="G7" t="n">
-        <v>4.375000000000002</v>
+        <v>60780.48609999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +666,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.6</v>
+        <v>4.34</v>
       </c>
       <c r="C8" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="D8" t="n">
-        <v>4.6</v>
+        <v>4.34</v>
       </c>
       <c r="E8" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="F8" t="n">
-        <v>115432.0844</v>
+        <v>27745.7499</v>
       </c>
       <c r="G8" t="n">
-        <v>4.385500000000001</v>
+        <v>33034.7362</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +710,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.6</v>
+        <v>4.38</v>
       </c>
       <c r="C9" t="n">
-        <v>4.61</v>
+        <v>4.38</v>
       </c>
       <c r="D9" t="n">
-        <v>4.61</v>
+        <v>4.38</v>
       </c>
       <c r="E9" t="n">
-        <v>4.6</v>
+        <v>4.38</v>
       </c>
       <c r="F9" t="n">
-        <v>181369.0388</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>4.396000000000001</v>
+        <v>33084.7362</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +754,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.43</v>
+        <v>4.37</v>
       </c>
       <c r="C10" t="n">
-        <v>4.43</v>
+        <v>4.37</v>
       </c>
       <c r="D10" t="n">
-        <v>4.43</v>
+        <v>4.37</v>
       </c>
       <c r="E10" t="n">
-        <v>4.43</v>
+        <v>4.37</v>
       </c>
       <c r="F10" t="n">
-        <v>100000</v>
+        <v>381.1212</v>
       </c>
       <c r="G10" t="n">
-        <v>4.398000000000001</v>
+        <v>32703.615</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +798,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="C11" t="n">
-        <v>4.42</v>
+        <v>4.39</v>
       </c>
       <c r="D11" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="E11" t="n">
-        <v>4.42</v>
+        <v>4.39</v>
       </c>
       <c r="F11" t="n">
-        <v>19092.8265</v>
+        <v>44635.7499</v>
       </c>
       <c r="G11" t="n">
-        <v>4.4</v>
+        <v>77339.3649</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +822,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +840,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="C12" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="D12" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="E12" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="F12" t="n">
-        <v>60000</v>
+        <v>116439.1023</v>
       </c>
       <c r="G12" t="n">
-        <v>4.4</v>
+        <v>77339.3649</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +864,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +882,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="C13" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="D13" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="E13" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="F13" t="n">
-        <v>90000</v>
+        <v>67598.34510000001</v>
       </c>
       <c r="G13" t="n">
-        <v>4.3955</v>
+        <v>77339.3649</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +906,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +924,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.36</v>
+        <v>4.39</v>
       </c>
       <c r="C14" t="n">
-        <v>4.29</v>
+        <v>4.39</v>
       </c>
       <c r="D14" t="n">
-        <v>4.36</v>
+        <v>4.39</v>
       </c>
       <c r="E14" t="n">
-        <v>4.29</v>
+        <v>4.39</v>
       </c>
       <c r="F14" t="n">
-        <v>847000</v>
+        <v>93878.8797</v>
       </c>
       <c r="G14" t="n">
-        <v>4.396000000000001</v>
+        <v>77339.3649</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +948,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +966,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29</v>
+        <v>4.39</v>
       </c>
       <c r="C15" t="n">
-        <v>4.29</v>
+        <v>4.39</v>
       </c>
       <c r="D15" t="n">
-        <v>4.29</v>
+        <v>4.39</v>
       </c>
       <c r="E15" t="n">
-        <v>4.29</v>
+        <v>4.39</v>
       </c>
       <c r="F15" t="n">
-        <v>100000</v>
+        <v>8530.774299999999</v>
       </c>
       <c r="G15" t="n">
-        <v>4.393500000000001</v>
+        <v>77339.3649</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +990,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1008,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="C16" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="D16" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="E16" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="F16" t="n">
-        <v>18394.2002</v>
+        <v>5876.5945</v>
       </c>
       <c r="G16" t="n">
-        <v>4.392500000000001</v>
+        <v>77339.3649</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1032,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1050,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.32</v>
+        <v>4.39</v>
       </c>
       <c r="C17" t="n">
-        <v>4.32</v>
+        <v>4.39</v>
       </c>
       <c r="D17" t="n">
-        <v>4.32</v>
+        <v>4.39</v>
       </c>
       <c r="E17" t="n">
-        <v>4.32</v>
+        <v>4.39</v>
       </c>
       <c r="F17" t="n">
-        <v>18452.0773</v>
+        <v>2541.6958</v>
       </c>
       <c r="G17" t="n">
-        <v>4.393500000000001</v>
+        <v>77339.3649</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1074,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1092,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="C18" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="D18" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="E18" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="F18" t="n">
-        <v>58448.0171</v>
+        <v>2382.9726</v>
       </c>
       <c r="G18" t="n">
-        <v>4.393000000000001</v>
+        <v>77339.3649</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1116,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1134,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="C19" t="n">
-        <v>4.31</v>
+        <v>4.38</v>
       </c>
       <c r="D19" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="E19" t="n">
-        <v>4.31</v>
+        <v>4.38</v>
       </c>
       <c r="F19" t="n">
-        <v>749449.4613</v>
+        <v>83002.22719999999</v>
       </c>
       <c r="G19" t="n">
-        <v>4.393000000000001</v>
+        <v>-5662.862299999993</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1176,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="C20" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="D20" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="E20" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="F20" t="n">
-        <v>13875.5119</v>
+        <v>19957.5122</v>
       </c>
       <c r="G20" t="n">
-        <v>4.391500000000001</v>
+        <v>14294.64990000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1200,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1218,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="C21" t="n">
-        <v>4.36</v>
+        <v>4.48</v>
       </c>
       <c r="D21" t="n">
-        <v>4.36</v>
+        <v>4.48</v>
       </c>
       <c r="E21" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="F21" t="n">
-        <v>103761.2957</v>
+        <v>67209.1896</v>
       </c>
       <c r="G21" t="n">
-        <v>4.390500000000001</v>
+        <v>81503.8395</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1242,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1260,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.36</v>
+        <v>4.47</v>
       </c>
       <c r="C22" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="D22" t="n">
-        <v>4.36</v>
+        <v>4.47</v>
       </c>
       <c r="E22" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="F22" t="n">
-        <v>26666.9672</v>
+        <v>30100</v>
       </c>
       <c r="G22" t="n">
-        <v>4.392000000000001</v>
+        <v>51403.8395</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1284,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1302,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="C23" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="D23" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="E23" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="F23" t="n">
-        <v>23360.785</v>
+        <v>1703.0748</v>
       </c>
       <c r="G23" t="n">
-        <v>4.393500000000001</v>
+        <v>51403.8395</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1326,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1344,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="C24" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="D24" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="E24" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="F24" t="n">
-        <v>25071.4942</v>
+        <v>8045.1843</v>
       </c>
       <c r="G24" t="n">
-        <v>4.392000000000001</v>
+        <v>43358.6552</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1368,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1386,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="C25" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="D25" t="n">
-        <v>4.36</v>
+        <v>4.33</v>
       </c>
       <c r="E25" t="n">
-        <v>4.35</v>
+        <v>4.32</v>
       </c>
       <c r="F25" t="n">
-        <v>94667.1292</v>
+        <v>24357.2222</v>
       </c>
       <c r="G25" t="n">
-        <v>4.387</v>
+        <v>19001.433</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1410,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1428,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.36</v>
+        <v>4.3</v>
       </c>
       <c r="C26" t="n">
-        <v>4.36</v>
+        <v>4.28</v>
       </c>
       <c r="D26" t="n">
-        <v>4.36</v>
+        <v>4.3</v>
       </c>
       <c r="E26" t="n">
-        <v>4.36</v>
+        <v>4.28</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>7597.2325</v>
       </c>
       <c r="G26" t="n">
-        <v>4.3825</v>
+        <v>11404.2005</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1452,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1470,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.39</v>
+        <v>4.32</v>
       </c>
       <c r="C27" t="n">
-        <v>4.39</v>
+        <v>4.32</v>
       </c>
       <c r="D27" t="n">
-        <v>4.39</v>
+        <v>4.32</v>
       </c>
       <c r="E27" t="n">
-        <v>4.39</v>
+        <v>4.32</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G27" t="n">
-        <v>4.3795</v>
+        <v>13404.2005</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1494,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1512,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.39</v>
+        <v>4.33</v>
       </c>
       <c r="C28" t="n">
-        <v>4.39</v>
+        <v>4.33</v>
       </c>
       <c r="D28" t="n">
-        <v>4.39</v>
+        <v>4.33</v>
       </c>
       <c r="E28" t="n">
-        <v>4.39</v>
+        <v>4.33</v>
       </c>
       <c r="F28" t="n">
-        <v>1025.0569</v>
+        <v>35797.27</v>
       </c>
       <c r="G28" t="n">
-        <v>4.369000000000001</v>
+        <v>49201.4705</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1556,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.36</v>
+        <v>4.33</v>
       </c>
       <c r="C29" t="n">
-        <v>4.36</v>
+        <v>4.33</v>
       </c>
       <c r="D29" t="n">
-        <v>4.36</v>
+        <v>4.33</v>
       </c>
       <c r="E29" t="n">
-        <v>4.36</v>
+        <v>4.33</v>
       </c>
       <c r="F29" t="n">
-        <v>18348.2146</v>
+        <v>226319.9528</v>
       </c>
       <c r="G29" t="n">
-        <v>4.357000000000001</v>
+        <v>49201.4705</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1580,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1598,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="C30" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="D30" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="E30" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="F30" t="n">
-        <v>9482.7744</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>4.353500000000001</v>
+        <v>49211.4705</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1642,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="C31" t="n">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="D31" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="E31" t="n">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="F31" t="n">
-        <v>94667.1292</v>
+        <v>26152.0726</v>
       </c>
       <c r="G31" t="n">
-        <v>4.350500000000001</v>
+        <v>23059.3979</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1666,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1684,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="C32" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="D32" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="E32" t="n">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="F32" t="n">
-        <v>228.8329519450801</v>
+        <v>47.9274</v>
       </c>
       <c r="G32" t="n">
-        <v>4.349000000000001</v>
+        <v>23059.3979</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1728,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="C33" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="D33" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="E33" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="F33" t="n">
-        <v>4000</v>
+        <v>50000</v>
       </c>
       <c r="G33" t="n">
-        <v>4.348500000000001</v>
+        <v>73059.3979</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1752,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1770,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.38</v>
+        <v>4.45</v>
       </c>
       <c r="C34" t="n">
-        <v>4.39</v>
+        <v>4.46</v>
       </c>
       <c r="D34" t="n">
-        <v>4.39</v>
+        <v>4.46</v>
       </c>
       <c r="E34" t="n">
-        <v>4.38</v>
+        <v>4.45</v>
       </c>
       <c r="F34" t="n">
-        <v>75125.3988</v>
+        <v>130000</v>
       </c>
       <c r="G34" t="n">
-        <v>4.349500000000001</v>
+        <v>203059.3979</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1794,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1812,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="C35" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="D35" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="E35" t="n">
-        <v>4.39</v>
+        <v>4.44</v>
       </c>
       <c r="F35" t="n">
-        <v>19635.5353</v>
+        <v>120753.7286</v>
       </c>
       <c r="G35" t="n">
-        <v>4.354500000000001</v>
+        <v>82305.66929999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1836,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1854,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="C36" t="n">
-        <v>4.39</v>
+        <v>4.6</v>
       </c>
       <c r="D36" t="n">
-        <v>4.39</v>
+        <v>4.6</v>
       </c>
       <c r="E36" t="n">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
       <c r="F36" t="n">
-        <v>42067.648</v>
+        <v>1428389.0178</v>
       </c>
       <c r="G36" t="n">
-        <v>4.358500000000001</v>
+        <v>1510694.6871</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1878,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1896,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="C37" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="D37" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="E37" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>115432.0844</v>
       </c>
       <c r="G37" t="n">
-        <v>4.363000000000001</v>
+        <v>1510694.6871</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1920,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1938,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="C38" t="n">
-        <v>4.41</v>
+        <v>4.61</v>
       </c>
       <c r="D38" t="n">
-        <v>4.41</v>
+        <v>4.61</v>
       </c>
       <c r="E38" t="n">
-        <v>4.41</v>
+        <v>4.6</v>
       </c>
       <c r="F38" t="n">
-        <v>4490</v>
+        <v>181369.0388</v>
       </c>
       <c r="G38" t="n">
-        <v>4.368</v>
+        <v>1692063.7259</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1962,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1980,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="C39" t="n">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="D39" t="n">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="E39" t="n">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="F39" t="n">
-        <v>9405.2863</v>
+        <v>100000</v>
       </c>
       <c r="G39" t="n">
-        <v>4.378500000000001</v>
+        <v>1592063.7259</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2004,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +2022,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.55</v>
+        <v>4.43</v>
       </c>
       <c r="C40" t="n">
-        <v>4.55</v>
+        <v>4.42</v>
       </c>
       <c r="D40" t="n">
-        <v>4.55</v>
+        <v>4.43</v>
       </c>
       <c r="E40" t="n">
-        <v>4.55</v>
+        <v>4.42</v>
       </c>
       <c r="F40" t="n">
-        <v>74596.9774</v>
+        <v>19092.8265</v>
       </c>
       <c r="G40" t="n">
-        <v>4.391000000000001</v>
+        <v>1572970.8994</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +2064,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="C41" t="n">
-        <v>4.57</v>
+        <v>4.4</v>
       </c>
       <c r="D41" t="n">
-        <v>4.57</v>
+        <v>4.4</v>
       </c>
       <c r="E41" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="F41" t="n">
-        <v>7486.4332</v>
+        <v>60000</v>
       </c>
       <c r="G41" t="n">
-        <v>4.400500000000001</v>
+        <v>1512970.8994</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2106,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.52</v>
+        <v>4.38</v>
       </c>
       <c r="C42" t="n">
-        <v>4.51</v>
+        <v>4.38</v>
       </c>
       <c r="D42" t="n">
-        <v>4.52</v>
+        <v>4.38</v>
       </c>
       <c r="E42" t="n">
-        <v>4.51</v>
+        <v>4.38</v>
       </c>
       <c r="F42" t="n">
-        <v>190969.5932</v>
+        <v>90000</v>
       </c>
       <c r="G42" t="n">
-        <v>4.408500000000001</v>
+        <v>1422970.8994</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2148,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="C43" t="n">
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="D43" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="E43" t="n">
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="F43" t="n">
-        <v>30000</v>
+        <v>847000</v>
       </c>
       <c r="G43" t="n">
-        <v>4.413000000000001</v>
+        <v>575970.8994</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2190,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.44</v>
+        <v>4.29</v>
       </c>
       <c r="C44" t="n">
-        <v>4.44</v>
+        <v>4.29</v>
       </c>
       <c r="D44" t="n">
-        <v>4.44</v>
+        <v>4.29</v>
       </c>
       <c r="E44" t="n">
-        <v>4.44</v>
+        <v>4.29</v>
       </c>
       <c r="F44" t="n">
-        <v>37817.6759</v>
+        <v>100000</v>
       </c>
       <c r="G44" t="n">
-        <v>4.417500000000001</v>
+        <v>575970.8994</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2232,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="C45" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="D45" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="E45" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="F45" t="n">
-        <v>100000</v>
+        <v>18394.2002</v>
       </c>
       <c r="G45" t="n">
-        <v>4.422000000000001</v>
+        <v>594365.0996</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2274,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="C46" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="D46" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="E46" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="F46" t="n">
-        <v>550</v>
+        <v>18452.0773</v>
       </c>
       <c r="G46" t="n">
-        <v>4.427000000000001</v>
+        <v>612817.1769</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2298,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2316,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.46</v>
+        <v>4.31</v>
       </c>
       <c r="C47" t="n">
-        <v>4.46</v>
+        <v>4.31</v>
       </c>
       <c r="D47" t="n">
-        <v>4.46</v>
+        <v>4.31</v>
       </c>
       <c r="E47" t="n">
-        <v>4.46</v>
+        <v>4.31</v>
       </c>
       <c r="F47" t="n">
-        <v>7189.13</v>
+        <v>58448.0171</v>
       </c>
       <c r="G47" t="n">
-        <v>4.4305</v>
+        <v>554369.1598</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2340,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2358,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="C48" t="n">
-        <v>4.5</v>
+        <v>4.31</v>
       </c>
       <c r="D48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="E48" t="n">
-        <v>4.5</v>
+        <v>4.31</v>
       </c>
       <c r="F48" t="n">
-        <v>26467.9978</v>
+        <v>749449.4613</v>
       </c>
       <c r="G48" t="n">
-        <v>4.436000000000001</v>
+        <v>554369.1598</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2400,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="C49" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="D49" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="E49" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="F49" t="n">
-        <v>18</v>
+        <v>13875.5119</v>
       </c>
       <c r="G49" t="n">
-        <v>4.445500000000001</v>
+        <v>540493.6479</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2442,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.55</v>
+        <v>4.36</v>
       </c>
       <c r="C50" t="n">
-        <v>4.55</v>
+        <v>4.36</v>
       </c>
       <c r="D50" t="n">
-        <v>4.55</v>
+        <v>4.36</v>
       </c>
       <c r="E50" t="n">
-        <v>4.55</v>
+        <v>4.36</v>
       </c>
       <c r="F50" t="n">
-        <v>82</v>
+        <v>103761.2957</v>
       </c>
       <c r="G50" t="n">
-        <v>4.455</v>
+        <v>644254.9436</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2484,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="C51" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="D51" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="E51" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="F51" t="n">
-        <v>173212.2222</v>
+        <v>26666.9672</v>
       </c>
       <c r="G51" t="n">
-        <v>4.4615</v>
+        <v>644254.9436</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2526,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="C52" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="D52" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="E52" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="F52" t="n">
-        <v>60000</v>
+        <v>23360.785</v>
       </c>
       <c r="G52" t="n">
-        <v>4.467499999999999</v>
+        <v>644254.9436</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2568,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="C53" t="n">
-        <v>4.49</v>
+        <v>4.35</v>
       </c>
       <c r="D53" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="E53" t="n">
-        <v>4.49</v>
+        <v>4.35</v>
       </c>
       <c r="F53" t="n">
-        <v>681821.7088</v>
+        <v>25071.4942</v>
       </c>
       <c r="G53" t="n">
-        <v>4.473999999999999</v>
+        <v>619183.4494</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2592,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2610,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.54</v>
+        <v>4.35</v>
       </c>
       <c r="C54" t="n">
-        <v>4.54</v>
+        <v>4.36</v>
       </c>
       <c r="D54" t="n">
-        <v>4.54</v>
+        <v>4.36</v>
       </c>
       <c r="E54" t="n">
-        <v>4.54</v>
+        <v>4.35</v>
       </c>
       <c r="F54" t="n">
-        <v>82</v>
+        <v>94667.1292</v>
       </c>
       <c r="G54" t="n">
-        <v>4.482</v>
+        <v>713850.5786</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2634,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2652,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.53</v>
+        <v>4.36</v>
       </c>
       <c r="C55" t="n">
-        <v>4.53</v>
+        <v>4.36</v>
       </c>
       <c r="D55" t="n">
-        <v>4.53</v>
+        <v>4.36</v>
       </c>
       <c r="E55" t="n">
-        <v>4.53</v>
+        <v>4.36</v>
       </c>
       <c r="F55" t="n">
-        <v>38546.2555</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>4.489</v>
+        <v>713850.5786</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2694,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="C56" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="D56" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="E56" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="F56" t="n">
-        <v>22573.3634</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>4.496</v>
+        <v>713860.5786</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2736,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="C57" t="n">
-        <v>4.49</v>
+        <v>4.39</v>
       </c>
       <c r="D57" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="E57" t="n">
-        <v>4.49</v>
+        <v>4.39</v>
       </c>
       <c r="F57" t="n">
-        <v>84189.2191</v>
+        <v>1025.0569</v>
       </c>
       <c r="G57" t="n">
-        <v>4.502000000000001</v>
+        <v>713860.5786</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2778,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="C58" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="D58" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="E58" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="F58" t="n">
-        <v>485622.8186</v>
+        <v>18348.2146</v>
       </c>
       <c r="G58" t="n">
-        <v>4.504</v>
+        <v>695512.3640000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2820,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="C59" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="D59" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="E59" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="F59" t="n">
-        <v>1014400.5908</v>
+        <v>9482.7744</v>
       </c>
       <c r="G59" t="n">
-        <v>4.498500000000001</v>
+        <v>695512.3640000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2514,8 +2844,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2862,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.42</v>
+        <v>4.37</v>
       </c>
       <c r="C60" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="D60" t="n">
-        <v>4.42</v>
+        <v>4.37</v>
       </c>
       <c r="E60" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="F60" t="n">
-        <v>138696.9951</v>
+        <v>94667.1292</v>
       </c>
       <c r="G60" t="n">
-        <v>4.492000000000001</v>
+        <v>600845.2348000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2550,8 +2886,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2904,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="C61" t="n">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="D61" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="E61" t="n">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="F61" t="n">
-        <v>311521.8824</v>
+        <v>228.8329519450801</v>
       </c>
       <c r="G61" t="n">
-        <v>4.482500000000001</v>
+        <v>601074.0677519452</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,8 +2928,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2946,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="C62" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="D62" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="E62" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="G62" t="n">
-        <v>4.471500000000001</v>
+        <v>601074.0677519452</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2622,8 +2970,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,7 +2988,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.39</v>
+        <v>4.38</v>
       </c>
       <c r="C63" t="n">
         <v>4.39</v>
@@ -2643,13 +2997,13 @@
         <v>4.39</v>
       </c>
       <c r="E63" t="n">
-        <v>4.39</v>
+        <v>4.38</v>
       </c>
       <c r="F63" t="n">
-        <v>228.4738041002278</v>
+        <v>75125.3988</v>
       </c>
       <c r="G63" t="n">
-        <v>4.468500000000001</v>
+        <v>676199.4665519452</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2658,8 +3012,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +3030,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="C64" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="D64" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="E64" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="F64" t="n">
-        <v>83483.4066</v>
+        <v>19635.5353</v>
       </c>
       <c r="G64" t="n">
-        <v>4.461500000000001</v>
+        <v>676199.4665519452</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2694,8 +3054,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +3072,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="C65" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="D65" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="E65" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>42067.648</v>
       </c>
       <c r="G65" t="n">
-        <v>4.459500000000001</v>
+        <v>676199.4665519452</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2730,8 +3096,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3114,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="C66" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="D66" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="E66" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="F66" t="n">
-        <v>54110.633</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>4.459000000000001</v>
+        <v>676209.4665519452</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2766,8 +3138,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3156,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="C67" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="D67" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="E67" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="F67" t="n">
-        <v>14461.5124</v>
+        <v>4490</v>
       </c>
       <c r="G67" t="n">
-        <v>4.459000000000001</v>
+        <v>676209.4665519452</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2802,8 +3180,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3198,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.32</v>
+        <v>4.54</v>
       </c>
       <c r="C68" t="n">
-        <v>4.32</v>
+        <v>4.54</v>
       </c>
       <c r="D68" t="n">
-        <v>4.32</v>
+        <v>4.54</v>
       </c>
       <c r="E68" t="n">
-        <v>4.32</v>
+        <v>4.54</v>
       </c>
       <c r="F68" t="n">
-        <v>11886.3425</v>
+        <v>9405.2863</v>
       </c>
       <c r="G68" t="n">
-        <v>4.450000000000001</v>
+        <v>685614.7528519452</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2838,8 +3222,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3240,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="C69" t="n">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="D69" t="n">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="E69" t="n">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="F69" t="n">
-        <v>8357.5555</v>
+        <v>74596.9774</v>
       </c>
       <c r="G69" t="n">
-        <v>4.438500000000001</v>
+        <v>760211.7302519452</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2874,8 +3264,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,34 +3282,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.31</v>
+        <v>4.55</v>
       </c>
       <c r="C70" t="n">
-        <v>4.31</v>
+        <v>4.57</v>
       </c>
       <c r="D70" t="n">
-        <v>4.31</v>
+        <v>4.57</v>
       </c>
       <c r="E70" t="n">
-        <v>4.31</v>
+        <v>4.55</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>7486.4332</v>
       </c>
       <c r="G70" t="n">
-        <v>4.426500000000002</v>
+        <v>767698.1634519452</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>1.043165137614679</v>
       </c>
       <c r="N70" t="inlineStr"/>
     </row>
@@ -2922,38 +3324,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.31</v>
+        <v>4.52</v>
       </c>
       <c r="C71" t="n">
-        <v>4.3</v>
+        <v>4.51</v>
       </c>
       <c r="D71" t="n">
-        <v>4.31</v>
+        <v>4.52</v>
       </c>
       <c r="E71" t="n">
-        <v>4.3</v>
+        <v>4.51</v>
       </c>
       <c r="F71" t="n">
-        <v>228215.9902</v>
+        <v>190969.5932</v>
       </c>
       <c r="G71" t="n">
-        <v>4.417000000000002</v>
+        <v>576728.5702519452</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4.31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2964,38 +3360,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="C72" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="D72" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="E72" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="F72" t="n">
-        <v>226.984126984127</v>
+        <v>30000</v>
       </c>
       <c r="G72" t="n">
-        <v>4.413000000000002</v>
+        <v>546728.5702519452</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3006,38 +3396,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="C73" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="D73" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="E73" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="F73" t="n">
-        <v>132458.2024</v>
+        <v>37817.6759</v>
       </c>
       <c r="G73" t="n">
-        <v>4.403000000000001</v>
+        <v>508910.8943519451</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>4.41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3048,22 +3432,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="C74" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="D74" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="E74" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0009</v>
+        <v>100000</v>
       </c>
       <c r="G74" t="n">
-        <v>4.391000000000001</v>
+        <v>508910.8943519451</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3073,11 +3457,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3088,38 +3468,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="C75" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="D75" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="E75" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="G75" t="n">
-        <v>4.384500000000001</v>
+        <v>509460.8943519451</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3130,38 +3504,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="C76" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="D76" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="E76" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>7189.13</v>
       </c>
       <c r="G76" t="n">
-        <v>4.372500000000001</v>
+        <v>509460.8943519451</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>4.4</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3172,38 +3540,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="C77" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="D77" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="E77" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>26467.9978</v>
       </c>
       <c r="G77" t="n">
-        <v>4.365500000000002</v>
+        <v>535928.8921519452</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>4.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3214,38 +3576,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="C78" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="D78" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="E78" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" t="n">
-        <v>4.363000000000001</v>
+        <v>535946.8921519452</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>4.39</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3256,36 +3612,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="C79" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="D79" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="E79" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="F79" t="n">
-        <v>35520.0776</v>
+        <v>82</v>
       </c>
       <c r="G79" t="n">
-        <v>4.356500000000001</v>
+        <v>535946.8921519452</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3296,38 +3648,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="C80" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="E80" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>173212.2222</v>
       </c>
       <c r="G80" t="n">
-        <v>4.350000000000001</v>
+        <v>362734.6699519452</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>4.37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3338,36 +3684,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="C81" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="D81" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="E81" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>60000</v>
       </c>
       <c r="G81" t="n">
-        <v>4.350500000000002</v>
+        <v>302734.6699519452</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3378,22 +3720,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.37</v>
+        <v>4.5</v>
       </c>
       <c r="C82" t="n">
-        <v>4.38</v>
+        <v>4.49</v>
       </c>
       <c r="D82" t="n">
-        <v>4.38</v>
+        <v>4.5</v>
       </c>
       <c r="E82" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="F82" t="n">
-        <v>23915.26639840183</v>
+        <v>681821.7088</v>
       </c>
       <c r="G82" t="n">
-        <v>4.354000000000002</v>
+        <v>302734.6699519452</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3403,11 +3745,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3418,22 +3756,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.38</v>
+        <v>4.54</v>
       </c>
       <c r="C83" t="n">
-        <v>4.39</v>
+        <v>4.54</v>
       </c>
       <c r="D83" t="n">
-        <v>4.39</v>
+        <v>4.54</v>
       </c>
       <c r="E83" t="n">
-        <v>4.38</v>
+        <v>4.54</v>
       </c>
       <c r="F83" t="n">
-        <v>39772.7272</v>
+        <v>82</v>
       </c>
       <c r="G83" t="n">
-        <v>4.353500000000002</v>
+        <v>302816.6699519452</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3443,11 +3781,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3458,22 +3792,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.39</v>
+        <v>4.53</v>
       </c>
       <c r="C84" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="D84" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="E84" t="n">
-        <v>4.39</v>
+        <v>4.53</v>
       </c>
       <c r="F84" t="n">
-        <v>197092.8644</v>
+        <v>38546.2555</v>
       </c>
       <c r="G84" t="n">
-        <v>4.358000000000002</v>
+        <v>264270.4144519452</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3483,11 +3817,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3828,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="C85" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="D85" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="E85" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="F85" t="n">
-        <v>18412.218</v>
+        <v>22573.3634</v>
       </c>
       <c r="G85" t="n">
-        <v>4.358000000000002</v>
+        <v>264270.4144519452</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3523,11 +3853,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3538,22 +3864,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="C86" t="n">
-        <v>4.4</v>
+        <v>4.49</v>
       </c>
       <c r="D86" t="n">
-        <v>4.4</v>
+        <v>4.53</v>
       </c>
       <c r="E86" t="n">
-        <v>4.4</v>
+        <v>4.49</v>
       </c>
       <c r="F86" t="n">
-        <v>10000</v>
+        <v>84189.2191</v>
       </c>
       <c r="G86" t="n">
-        <v>4.355500000000002</v>
+        <v>180081.1953519452</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3563,11 +3889,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3581,19 +3903,19 @@
         <v>4.45</v>
       </c>
       <c r="C87" t="n">
-        <v>4.45</v>
+        <v>4.44</v>
       </c>
       <c r="D87" t="n">
         <v>4.45</v>
       </c>
       <c r="E87" t="n">
-        <v>4.45</v>
+        <v>4.44</v>
       </c>
       <c r="F87" t="n">
-        <v>1748.3146</v>
+        <v>485622.8186</v>
       </c>
       <c r="G87" t="n">
-        <v>4.355000000000002</v>
+        <v>-305541.6232480548</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3603,11 +3925,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3936,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="C88" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="D88" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="E88" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="F88" t="n">
-        <v>100000</v>
+        <v>1014400.5908</v>
       </c>
       <c r="G88" t="n">
-        <v>4.361000000000002</v>
+        <v>-1319942.214048055</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3643,11 +3961,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3658,22 +3972,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.45</v>
+        <v>4.42</v>
       </c>
       <c r="C89" t="n">
-        <v>4.46</v>
+        <v>4.42</v>
       </c>
       <c r="D89" t="n">
-        <v>4.46</v>
+        <v>4.42</v>
       </c>
       <c r="E89" t="n">
-        <v>4.45</v>
+        <v>4.42</v>
       </c>
       <c r="F89" t="n">
-        <v>64884.989</v>
+        <v>138696.9951</v>
       </c>
       <c r="G89" t="n">
-        <v>4.367500000000002</v>
+        <v>-1319942.214048055</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3683,11 +3997,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3698,22 +4008,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="C90" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="D90" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="E90" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="F90" t="n">
-        <v>69443.20789999999</v>
+        <v>311521.8824</v>
       </c>
       <c r="G90" t="n">
-        <v>4.374000000000002</v>
+        <v>-1631464.096448055</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3723,11 +4033,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3738,22 +4044,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="C91" t="n">
-        <v>4.46</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="n">
-        <v>4.46</v>
+        <v>4.3</v>
       </c>
       <c r="E91" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="F91" t="n">
-        <v>83136.8821</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>4.381000000000002</v>
+        <v>-1631474.096448055</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3763,11 +4069,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +4080,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="C92" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="D92" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="E92" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="F92" t="n">
-        <v>24101.5695</v>
+        <v>228.4738041002278</v>
       </c>
       <c r="G92" t="n">
-        <v>4.383000000000003</v>
+        <v>-1631245.622643955</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3803,11 +4105,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3818,22 +4116,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="C93" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="E93" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="F93" t="n">
-        <v>1818</v>
+        <v>83483.4066</v>
       </c>
       <c r="G93" t="n">
-        <v>4.385500000000002</v>
+        <v>-1714729.029243955</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3843,11 +4141,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3858,22 +4152,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="C94" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="D94" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="E94" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="F94" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>4.393000000000002</v>
+        <v>-1714719.029243955</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3883,11 +4177,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4188,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="C95" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="D95" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="E95" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="F95" t="n">
-        <v>5000</v>
+        <v>54110.633</v>
       </c>
       <c r="G95" t="n">
-        <v>4.393500000000002</v>
+        <v>-1660608.396243955</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3923,11 +4213,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3938,22 +4224,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="C96" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="D96" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="E96" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="F96" t="n">
-        <v>14126.7285</v>
+        <v>14461.5124</v>
       </c>
       <c r="G96" t="n">
-        <v>4.399500000000002</v>
+        <v>-1660608.396243955</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3963,11 +4249,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3978,22 +4260,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="C97" t="n">
-        <v>4.42</v>
+        <v>4.32</v>
       </c>
       <c r="D97" t="n">
-        <v>4.42</v>
+        <v>4.32</v>
       </c>
       <c r="E97" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="F97" t="n">
-        <v>111443.2602</v>
+        <v>11886.3425</v>
       </c>
       <c r="G97" t="n">
-        <v>4.400500000000002</v>
+        <v>-1672494.738743955</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4003,11 +4285,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4018,22 +4296,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="C98" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="D98" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="E98" t="n">
-        <v>4.41</v>
+        <v>4.32</v>
       </c>
       <c r="F98" t="n">
-        <v>634391.1564</v>
+        <v>8357.5555</v>
       </c>
       <c r="G98" t="n">
-        <v>4.401000000000002</v>
+        <v>-1672494.738743955</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4043,11 +4321,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4058,22 +4332,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.36</v>
+        <v>4.31</v>
       </c>
       <c r="C99" t="n">
-        <v>4.35</v>
+        <v>4.31</v>
       </c>
       <c r="D99" t="n">
-        <v>4.36</v>
+        <v>4.31</v>
       </c>
       <c r="E99" t="n">
-        <v>4.35</v>
+        <v>4.31</v>
       </c>
       <c r="F99" t="n">
-        <v>70000</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>4.404000000000002</v>
+        <v>-1672504.738743955</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4083,11 +4357,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4098,22 +4368,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.36</v>
+        <v>4.31</v>
       </c>
       <c r="C100" t="n">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="n">
-        <v>4.36</v>
+        <v>4.31</v>
       </c>
       <c r="E100" t="n">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
       <c r="F100" t="n">
-        <v>32701.7944</v>
+        <v>228215.9902</v>
       </c>
       <c r="G100" t="n">
-        <v>4.407500000000001</v>
+        <v>-1900720.728943955</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4123,11 +4393,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4138,22 +4404,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="C101" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="D101" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="E101" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="F101" t="n">
-        <v>26229.2725</v>
+        <v>226.984126984127</v>
       </c>
       <c r="G101" t="n">
-        <v>4.4065</v>
+        <v>-1900493.744816971</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4163,11 +4429,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4440,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="C102" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="D102" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="E102" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="F102" t="n">
-        <v>11</v>
+        <v>132458.2024</v>
       </c>
       <c r="G102" t="n">
-        <v>4.407</v>
+        <v>-2032951.947216971</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4203,11 +4465,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4476,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="C103" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="D103" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="E103" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>0.0009</v>
       </c>
       <c r="G103" t="n">
-        <v>4.407500000000001</v>
+        <v>-2032951.947216971</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4243,11 +4501,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4258,22 +4512,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="C104" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="D104" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="E104" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="F104" t="n">
-        <v>12.1004</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>4.407</v>
+        <v>-2032941.947216971</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4283,11 +4537,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4298,22 +4548,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="C105" t="n">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="D105" t="n">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="E105" t="n">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="F105" t="n">
-        <v>9.8996</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>4.406</v>
+        <v>-2032951.947216971</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4323,11 +4573,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4338,22 +4584,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="C106" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="D106" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="E106" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="F106" t="n">
-        <v>52880.5113</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>4.404999999999999</v>
+        <v>-2032941.947216971</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4363,11 +4609,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4378,22 +4620,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C107" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D107" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E107" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="F107" t="n">
-        <v>34975.066</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>4.399999999999999</v>
+        <v>-2032931.947216971</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4403,11 +4645,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4418,22 +4656,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="C108" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="D108" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="E108" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="F108" t="n">
-        <v>45603.9342</v>
+        <v>35520.0776</v>
       </c>
       <c r="G108" t="n">
-        <v>4.397499999999999</v>
+        <v>-2068452.024816971</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4443,11 +4681,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4692,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.39</v>
+        <v>4.29</v>
       </c>
       <c r="C109" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="D109" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="E109" t="n">
-        <v>4.39</v>
+        <v>4.29</v>
       </c>
       <c r="F109" t="n">
-        <v>117167.4115</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>4.394499999999999</v>
+        <v>-2068462.024816971</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4483,11 +4717,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4498,22 +4728,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="C110" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="D110" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="E110" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="F110" t="n">
-        <v>26561.7628</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>4.392999999999999</v>
+        <v>-2068452.024816971</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4523,11 +4753,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4538,22 +4764,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="C111" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="D111" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="E111" t="n">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="F111" t="n">
-        <v>20194.858</v>
+        <v>23915.26639840183</v>
       </c>
       <c r="G111" t="n">
-        <v>4.390999999999998</v>
+        <v>-2044536.758418569</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4563,11 +4789,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4800,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="C112" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="D112" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
       <c r="E112" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>39772.7272</v>
       </c>
       <c r="G112" t="n">
-        <v>4.383499999999998</v>
+        <v>-2004764.031218569</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4603,11 +4825,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4618,22 +4836,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="C113" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="D113" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="E113" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>197092.8644</v>
       </c>
       <c r="G113" t="n">
-        <v>4.388499999999999</v>
+        <v>-1807671.166818568</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4643,11 +4861,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4658,22 +4872,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="C114" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="D114" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="E114" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="F114" t="n">
-        <v>2965.3932</v>
+        <v>18412.218</v>
       </c>
       <c r="G114" t="n">
-        <v>4.388499999999999</v>
+        <v>-1807671.166818568</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4683,11 +4897,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4698,22 +4908,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="C115" t="n">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="D115" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="E115" t="n">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="F115" t="n">
-        <v>162771.3457</v>
+        <v>10000</v>
       </c>
       <c r="G115" t="n">
-        <v>4.382999999999998</v>
+        <v>-1807671.166818568</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4723,11 +4933,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4750,10 +4956,10 @@
         <v>4.45</v>
       </c>
       <c r="F116" t="n">
-        <v>224.9438202247191</v>
+        <v>1748.3146</v>
       </c>
       <c r="G116" t="n">
-        <v>4.384999999999999</v>
+        <v>-1805922.852218569</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4763,11 +4969,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4778,22 +4980,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.25</v>
+        <v>4.44</v>
       </c>
       <c r="C117" t="n">
-        <v>4.25</v>
+        <v>4.44</v>
       </c>
       <c r="D117" t="n">
-        <v>4.25</v>
+        <v>4.44</v>
       </c>
       <c r="E117" t="n">
-        <v>4.25</v>
+        <v>4.44</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="G117" t="n">
-        <v>4.376999999999999</v>
+        <v>-1905922.852218569</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4803,11 +5005,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4818,22 +5016,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.26</v>
+        <v>4.45</v>
       </c>
       <c r="C118" t="n">
-        <v>4.26</v>
+        <v>4.46</v>
       </c>
       <c r="D118" t="n">
-        <v>4.26</v>
+        <v>4.46</v>
       </c>
       <c r="E118" t="n">
-        <v>4.26</v>
+        <v>4.45</v>
       </c>
       <c r="F118" t="n">
-        <v>60036.0373</v>
+        <v>64884.989</v>
       </c>
       <c r="G118" t="n">
-        <v>4.369499999999999</v>
+        <v>-1841037.863218568</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4843,11 +5041,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4858,22 +5052,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.27</v>
+        <v>4.44</v>
       </c>
       <c r="C119" t="n">
-        <v>4.27</v>
+        <v>4.44</v>
       </c>
       <c r="D119" t="n">
-        <v>4.27</v>
+        <v>4.44</v>
       </c>
       <c r="E119" t="n">
-        <v>4.27</v>
+        <v>4.44</v>
       </c>
       <c r="F119" t="n">
-        <v>926</v>
+        <v>69443.20789999999</v>
       </c>
       <c r="G119" t="n">
-        <v>4.364999999999999</v>
+        <v>-1910481.071118569</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4883,11 +5077,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4898,38 +5088,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="C120" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="D120" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="E120" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>83136.8821</v>
       </c>
       <c r="G120" t="n">
-        <v>4.367499999999999</v>
+        <v>-1827344.189018568</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>4.27</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4940,22 +5124,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.42</v>
+        <v>4.45</v>
       </c>
       <c r="C121" t="n">
-        <v>4.43</v>
+        <v>4.45</v>
       </c>
       <c r="D121" t="n">
-        <v>4.43</v>
+        <v>4.45</v>
       </c>
       <c r="E121" t="n">
-        <v>4.42</v>
+        <v>4.45</v>
       </c>
       <c r="F121" t="n">
-        <v>188567.2686</v>
+        <v>24101.5695</v>
       </c>
       <c r="G121" t="n">
-        <v>4.371</v>
+        <v>-1851445.758518568</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4965,11 +5149,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4980,38 +5160,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="C122" t="n">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="D122" t="n">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="E122" t="n">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="F122" t="n">
-        <v>48596.3882</v>
+        <v>1818</v>
       </c>
       <c r="G122" t="n">
-        <v>4.3735</v>
+        <v>-1853263.758518568</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5034,10 +5208,10 @@
         <v>4.45</v>
       </c>
       <c r="F123" t="n">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="G123" t="n">
-        <v>4.3765</v>
+        <v>-1851263.758518568</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5047,11 +5221,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5062,22 +5232,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="C124" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="D124" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="E124" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="F124" t="n">
-        <v>65182.922</v>
+        <v>5000</v>
       </c>
       <c r="G124" t="n">
-        <v>4.380000000000001</v>
+        <v>-1856263.758518568</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5087,11 +5257,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5102,22 +5268,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="C125" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="D125" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="E125" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="F125" t="n">
-        <v>12</v>
+        <v>14126.7285</v>
       </c>
       <c r="G125" t="n">
-        <v>4.384</v>
+        <v>-1856263.758518568</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5127,11 +5293,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5142,22 +5304,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="C126" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="D126" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="E126" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="F126" t="n">
-        <v>47.2534</v>
+        <v>111443.2602</v>
       </c>
       <c r="G126" t="n">
-        <v>4.387</v>
+        <v>-1744820.498318569</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5167,11 +5329,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5182,22 +5340,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="C127" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="D127" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="E127" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="F127" t="n">
-        <v>160.6674</v>
+        <v>634391.1564</v>
       </c>
       <c r="G127" t="n">
-        <v>4.390500000000001</v>
+        <v>-2379211.654718569</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5207,11 +5365,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5222,22 +5376,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="C128" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="D128" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="E128" t="n">
-        <v>4.42</v>
+        <v>4.35</v>
       </c>
       <c r="F128" t="n">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="G128" t="n">
-        <v>4.392000000000001</v>
+        <v>-2449211.654718569</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5247,11 +5401,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5262,22 +5412,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="C129" t="n">
-        <v>4.42</v>
+        <v>4.34</v>
       </c>
       <c r="D129" t="n">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="E129" t="n">
-        <v>4.42</v>
+        <v>4.34</v>
       </c>
       <c r="F129" t="n">
-        <v>12465.1583</v>
+        <v>32701.7944</v>
       </c>
       <c r="G129" t="n">
-        <v>4.393500000000001</v>
+        <v>-2481913.449118569</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5287,11 +5437,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5302,38 +5448,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="C130" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="D130" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="E130" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="F130" t="n">
-        <v>23855.4782</v>
+        <v>26229.2725</v>
       </c>
       <c r="G130" t="n">
-        <v>4.391500000000002</v>
+        <v>-2455684.176618569</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>4.42</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5344,22 +5484,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="C131" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="D131" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="E131" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="F131" t="n">
-        <v>59201.7414</v>
+        <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>4.389500000000002</v>
+        <v>-2455673.176618569</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5369,11 +5509,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5384,38 +5520,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="C132" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="D132" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="E132" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="F132" t="n">
-        <v>5156.5113</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>4.396000000000002</v>
+        <v>-2455663.176618569</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5426,22 +5556,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="C133" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="D133" t="n">
-        <v>4.41</v>
+        <v>4.38</v>
       </c>
       <c r="E133" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="F133" t="n">
-        <v>785326.5227</v>
+        <v>12.1004</v>
       </c>
       <c r="G133" t="n">
-        <v>4.393500000000001</v>
+        <v>-2455675.277018568</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5451,11 +5581,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5466,42 +5592,1080 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9.8996</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2455675.277018568</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F135" t="n">
+        <v>52880.5113</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2455675.277018568</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F136" t="n">
+        <v>34975.066</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2490650.343018569</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F137" t="n">
+        <v>45603.9342</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2445046.408818569</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F138" t="n">
+        <v>117167.4115</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2327878.997318569</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F139" t="n">
+        <v>26561.7628</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2301317.234518568</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F140" t="n">
+        <v>20194.858</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2281122.376518568</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2281142.376518568</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2281132.376518568</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2965.3932</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2281132.376518568</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F144" t="n">
+        <v>162771.3457</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2443903.722218568</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F145" t="n">
+        <v>224.9438202247191</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2443678.778398344</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2443688.778398344</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F147" t="n">
+        <v>60036.0373</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2383652.741098344</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F148" t="n">
+        <v>926</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2382726.741098344</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2382716.741098344</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C150" t="n">
         <v>4.43</v>
       </c>
-      <c r="C134" t="n">
+      <c r="D150" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F150" t="n">
+        <v>188567.2686</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2194149.472498344</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F151" t="n">
+        <v>48596.3882</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2194149.472498344</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2194137.472498344</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F153" t="n">
+        <v>65182.922</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2259320.394498344</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2259308.394498344</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>4.44</v>
       </c>
-      <c r="D134" t="n">
+      <c r="C155" t="n">
         <v>4.44</v>
       </c>
-      <c r="E134" t="n">
+      <c r="D155" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F155" t="n">
+        <v>47.2534</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2259355.647898343</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F156" t="n">
+        <v>160.6674</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2259516.315298344</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F157" t="n">
+        <v>90000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2259516.315298344</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F158" t="n">
+        <v>12465.1583</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2259516.315298344</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F159" t="n">
+        <v>23855.4782</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2283371.793498343</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F160" t="n">
+        <v>59201.7414</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2283371.793498343</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>4.43</v>
       </c>
-      <c r="F134" t="n">
+      <c r="C161" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5156.5113</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2278215.282198343</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>785326.5227</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1492888.759498343</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F163" t="n">
         <v>22297.78301261261</v>
       </c>
-      <c r="G134" t="n">
-        <v>4.392500000000002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>-1470590.976485731</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-30 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>76278.07019999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,15 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -640,26 +616,15 @@
         <v>60780.48609999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -684,26 +649,15 @@
         <v>33034.7362</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -728,26 +682,15 @@
         <v>33084.7362</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -772,26 +715,15 @@
         <v>32703.615</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,22 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -860,22 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -902,22 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -944,22 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -986,22 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1028,22 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1070,22 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1112,22 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1154,22 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1196,22 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1238,22 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1280,22 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1322,22 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1364,22 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1406,22 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1448,22 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1490,22 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1530,26 +1309,15 @@
         <v>49201.4705</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1576,22 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1616,26 +1375,19 @@
         <v>49211.4705</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J30" t="n">
         <v>4.33</v>
       </c>
-      <c r="K30" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1662,22 +1414,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1702,26 +1451,21 @@
         <v>23059.3979</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>4.33</v>
       </c>
-      <c r="K32" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1748,22 +1492,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1790,22 +1525,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1832,22 +1558,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1874,22 +1591,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1914,24 +1622,15 @@
         <v>1510694.6871</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1956,24 +1655,15 @@
         <v>1692063.7259</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1998,24 +1688,15 @@
         <v>1592063.7259</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2040,24 +1721,15 @@
         <v>1572970.8994</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2084,22 +1756,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2126,22 +1789,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2168,22 +1822,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2210,22 +1855,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2252,22 +1888,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2294,22 +1921,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2336,22 +1954,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2378,22 +1987,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2420,22 +2020,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2462,22 +2053,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2504,22 +2086,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2546,22 +2119,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2588,22 +2152,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2630,22 +2185,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2672,22 +2218,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2714,22 +2251,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2756,22 +2284,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2798,22 +2317,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2840,22 +2350,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2882,22 +2383,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2924,22 +2416,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2966,22 +2449,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3008,22 +2482,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3050,22 +2515,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3092,22 +2548,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3134,22 +2581,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3176,22 +2614,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3218,22 +2647,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3260,22 +2680,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3302,22 +2713,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1.043165137614679</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3342,18 +2744,15 @@
         <v>576728.5702519452</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3378,18 +2777,15 @@
         <v>546728.5702519452</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3414,18 +2810,15 @@
         <v>508910.8943519451</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3452,16 +2845,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3488,16 +2878,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3524,16 +2911,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3560,16 +2944,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3596,16 +2977,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3632,16 +3010,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3666,18 +3041,15 @@
         <v>362734.6699519452</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3702,18 +3074,15 @@
         <v>302734.6699519452</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3740,16 +3109,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3774,18 +3140,15 @@
         <v>302816.6699519452</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3810,18 +3173,15 @@
         <v>264270.4144519452</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3846,18 +3206,15 @@
         <v>264270.4144519452</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3884,16 +3241,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3918,18 +3272,15 @@
         <v>-305541.6232480548</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3956,16 +3307,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3992,16 +3340,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4028,16 +3373,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4064,16 +3406,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4100,16 +3439,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4136,16 +3472,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4172,16 +3505,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4208,16 +3538,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4244,16 +3571,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4278,18 +3602,15 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4316,16 +3637,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4352,16 +3670,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4388,16 +3703,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4422,18 +3734,15 @@
         <v>-1900493.744816971</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4460,16 +3769,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4496,16 +3802,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4532,16 +3835,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4568,16 +3868,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4604,16 +3901,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4640,16 +3934,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4676,16 +3967,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4712,16 +4000,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4748,16 +4033,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4784,16 +4066,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4820,16 +4099,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4856,16 +4132,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4892,16 +4165,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4928,16 +4198,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4964,16 +4231,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5000,16 +4264,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5036,16 +4297,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5072,16 +4330,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5108,16 +4363,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5144,16 +4396,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5180,16 +4429,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5216,16 +4462,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5252,16 +4495,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5288,16 +4528,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5324,16 +4561,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5360,16 +4594,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5396,16 +4627,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5432,16 +4660,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5468,16 +4693,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5504,16 +4726,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5540,16 +4759,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5576,16 +4792,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5612,16 +4825,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5648,16 +4858,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5684,16 +4891,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5720,16 +4924,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5756,16 +4957,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5792,16 +4990,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5828,16 +5023,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5864,16 +5056,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5900,16 +5089,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5936,16 +5122,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5972,16 +5155,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6008,16 +5188,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6044,16 +5221,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6080,16 +5254,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6116,16 +5287,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6152,16 +5320,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6188,16 +5353,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6224,16 +5386,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6260,16 +5419,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6296,16 +5452,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6332,16 +5485,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6368,16 +5518,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6404,16 +5551,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6440,16 +5584,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6476,16 +5617,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6512,16 +5650,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6548,16 +5683,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6584,16 +5716,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6620,16 +5749,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6656,18 +5782,15 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-30 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>76278.07019999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>75114.51149999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>75014.51149999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>60780.48609999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>33034.7362</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>33084.7362</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>32703.615</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +934,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +973,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1012,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1048,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1089,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1133,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1172,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1211,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1250,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1289,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1328,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1367,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1406,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1445,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1484,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1523,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,15 +1559,17 @@
         <v>49211.4705</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>4.4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1416,11 +1602,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1455,11 +1641,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1493,8 +1679,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1559,8 +1757,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1796,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1622,11 +1832,17 @@
         <v>1510694.6871</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1871,17 @@
         <v>1692063.7259</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1688,11 +1910,17 @@
         <v>1592063.7259</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1949,17 @@
         <v>1572970.8994</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1757,8 +1991,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1790,8 +2030,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1823,8 +2069,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1856,8 +2108,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1889,8 +2147,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1922,8 +2186,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1955,8 +2225,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1988,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2021,8 +2303,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2054,8 +2342,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2087,8 +2381,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2120,8 +2420,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2153,8 +2459,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2186,8 +2498,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2219,8 +2537,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2252,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2615,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2315,13 +2651,19 @@
         <v>695512.3640000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0.9859090909090908</v>
       </c>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2348,7 +2690,7 @@
         <v>695512.3640000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2414,7 +2756,7 @@
         <v>601074.0677519452</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2744,7 +3086,7 @@
         <v>576728.5702519452</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2777,7 +3119,7 @@
         <v>546728.5702519452</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2810,7 +3152,7 @@
         <v>508910.8943519451</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2975,7 +3317,7 @@
         <v>535946.8921519452</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3008,7 +3350,7 @@
         <v>535946.8921519452</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3041,7 +3383,7 @@
         <v>362734.6699519452</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3074,7 +3416,7 @@
         <v>302734.6699519452</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3107,7 +3449,7 @@
         <v>302734.6699519452</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3140,7 +3482,7 @@
         <v>302816.6699519452</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3173,7 +3515,7 @@
         <v>264270.4144519452</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3206,7 +3548,7 @@
         <v>264270.4144519452</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3239,7 +3581,7 @@
         <v>180081.1953519452</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3272,7 +3614,7 @@
         <v>-305541.6232480548</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3305,7 +3647,7 @@
         <v>-1319942.214048055</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3338,7 +3680,7 @@
         <v>-1319942.214048055</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3371,7 +3713,7 @@
         <v>-1631464.096448055</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3404,7 +3746,7 @@
         <v>-1631474.096448055</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3779,7 @@
         <v>-1631245.622643955</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3470,7 +3812,7 @@
         <v>-1714729.029243955</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3845,7 @@
         <v>-1714719.029243955</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3602,7 +3944,7 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3734,7 +4076,7 @@
         <v>-1900493.744816971</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -5483,10 +5825,14 @@
         <v>-2259308.394498344</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J154" t="n">
+        <v>4.42</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5519,8 +5865,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5549,11 +5901,19 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5582,10 +5942,14 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4.42</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5618,8 +5982,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5648,11 +6018,19 @@
         <v>-2283371.793498343</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5681,10 +6059,14 @@
         <v>-2283371.793498343</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="J160" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -5714,11 +6096,19 @@
         <v>-2278215.282198343</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="J161" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5747,11 +6137,19 @@
         <v>-1492888.759498343</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J162" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5780,10 +6178,14 @@
         <v>-1470590.976485731</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J163" t="n">
+        <v>4.4</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5791,6 +6193,6 @@
       <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-30 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>76278.07019999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>75114.51149999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>75014.51149999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>60780.48609999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>33034.7362</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>33084.7362</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>32703.615</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>77339.3649</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>77339.3649</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>77339.3649</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -934,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -973,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1012,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1048,19 +946,11 @@
         <v>77339.3649</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1089,19 +979,11 @@
         <v>77339.3649</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1133,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1172,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1208,17 +1078,11 @@
         <v>81503.8395</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1247,17 +1111,11 @@
         <v>51403.8395</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1286,17 +1144,11 @@
         <v>51403.8395</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1325,17 +1177,11 @@
         <v>43358.6552</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1364,17 +1210,11 @@
         <v>19001.433</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1406,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1445,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1484,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1523,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1562,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1601,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1640,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1679,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1715,17 +1507,11 @@
         <v>203059.3979</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1754,17 +1540,11 @@
         <v>82305.66929999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1793,17 +1573,11 @@
         <v>1510694.6871</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1835,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1913,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1952,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1991,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2030,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2069,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2105,17 +1837,11 @@
         <v>575970.8994</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2144,17 +1870,11 @@
         <v>594365.0996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2183,17 +1903,11 @@
         <v>612817.1769</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2225,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2264,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2303,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2342,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2420,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2459,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2498,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2537,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2576,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2615,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2651,19 +2299,13 @@
         <v>695512.3640000001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.9859090909090908</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2690,7 +2332,7 @@
         <v>695512.3640000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2789,7 +2431,7 @@
         <v>601074.0677519452</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2888,7 +2530,7 @@
         <v>676199.4665519452</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2921,7 +2563,7 @@
         <v>676209.4665519452</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2954,7 +2596,7 @@
         <v>676209.4665519452</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2987,7 +2629,7 @@
         <v>685614.7528519452</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3020,7 +2662,7 @@
         <v>760211.7302519452</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3383,7 +3025,7 @@
         <v>362734.6699519452</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3416,7 +3058,7 @@
         <v>302734.6699519452</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3449,7 +3091,7 @@
         <v>302734.6699519452</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3482,7 +3124,7 @@
         <v>302816.6699519452</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3515,7 +3157,7 @@
         <v>264270.4144519452</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3548,7 +3190,7 @@
         <v>264270.4144519452</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3581,7 +3223,7 @@
         <v>180081.1953519452</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3614,7 +3256,7 @@
         <v>-305541.6232480548</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3647,7 +3289,7 @@
         <v>-1319942.214048055</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3680,7 +3322,7 @@
         <v>-1319942.214048055</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3713,7 +3355,7 @@
         <v>-1631464.096448055</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3746,7 +3388,7 @@
         <v>-1631474.096448055</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3779,7 +3421,7 @@
         <v>-1631245.622643955</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3845,7 +3487,7 @@
         <v>-1714719.029243955</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3911,7 +3553,7 @@
         <v>-1660608.396243955</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3944,7 +3586,7 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3977,7 +3619,7 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4010,7 +3652,7 @@
         <v>-1672504.738743955</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4043,7 +3685,7 @@
         <v>-1900720.728943955</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4076,7 +3718,7 @@
         <v>-1900493.744816971</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4109,7 +3751,7 @@
         <v>-2032951.947216971</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4142,7 +3784,7 @@
         <v>-2032951.947216971</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4340,7 +3982,7 @@
         <v>-2068462.024816971</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4373,7 +4015,7 @@
         <v>-2068452.024816971</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4406,7 +4048,7 @@
         <v>-2044536.758418569</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -5231,10 +4873,14 @@
         <v>-2490650.343018569</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.38</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
@@ -5264,11 +4910,19 @@
         <v>-2445046.408818569</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5297,11 +4951,19 @@
         <v>-2327878.997318569</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5396,7 +5058,7 @@
         <v>-2281142.376518568</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5429,10 +5091,14 @@
         <v>-2281132.376518568</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>4.3</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5465,8 +5131,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5498,8 +5170,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5531,8 +5209,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5564,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5597,8 +5287,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5630,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5660,11 +5362,19 @@
         <v>-2382716.741098344</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J149" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5696,8 +5406,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5729,8 +5445,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5762,8 +5484,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5795,8 +5523,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5825,15 +5559,17 @@
         <v>-2259308.394498344</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>4.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5866,11 +5602,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5901,17 +5637,15 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5942,15 +5676,17 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5983,11 +5719,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -6018,17 +5754,15 @@
         <v>-2283371.793498343</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -6065,9 +5799,13 @@
         <v>4.37</v>
       </c>
       <c r="J160" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6102,11 +5840,11 @@
         <v>4.37</v>
       </c>
       <c r="J161" t="n">
-        <v>4.37</v>
+        <v>4.3</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -6143,11 +5881,11 @@
         <v>4.38</v>
       </c>
       <c r="J162" t="n">
-        <v>4.37</v>
+        <v>4.3</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -6178,21 +5916,23 @@
         <v>-1470590.976485731</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>4.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
       <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-30 BackTest BZNT.xlsx
@@ -484,10 +484,14 @@
         <v>75114.51149999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>75014.51149999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>60780.48609999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>33034.7362</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>33084.7362</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>32703.615</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1054,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1095,19 @@
         <v>77339.3649</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1136,19 @@
         <v>-5662.862299999993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1177,19 @@
         <v>14294.64990000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1218,19 @@
         <v>81503.8395</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1259,19 @@
         <v>51403.8395</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1300,19 @@
         <v>51403.8395</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1341,19 @@
         <v>43358.6552</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1382,19 @@
         <v>19001.433</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1426,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1462,19 @@
         <v>13404.2005</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1503,19 @@
         <v>49201.4705</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1544,19 @@
         <v>49201.4705</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1585,19 @@
         <v>49211.4705</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1629,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1668,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1707,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1743,17 @@
         <v>203059.3979</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1782,17 @@
         <v>82305.66929999998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1821,17 @@
         <v>1510694.6871</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1863,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,13 +1899,19 @@
         <v>1692063.7259</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>1.042727272727273</v>
       </c>
       <c r="M38" t="inlineStr"/>
     </row>
@@ -1672,7 +1938,7 @@
         <v>1592063.7259</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1971,7 @@
         <v>1572970.8994</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +2103,7 @@
         <v>575970.8994</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2136,7 @@
         <v>594365.0996</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2169,7 @@
         <v>612817.1769</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2398,7 +2664,7 @@
         <v>601074.0677519452</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2697,7 @@
         <v>601074.0677519452</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2530,7 +2796,7 @@
         <v>676199.4665519452</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2829,7 @@
         <v>676209.4665519452</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2862,7 @@
         <v>676209.4665519452</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2895,7 @@
         <v>685614.7528519452</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2928,7 @@
         <v>760211.7302519452</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2961,7 @@
         <v>767698.1634519452</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2994,7 @@
         <v>576728.5702519452</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +3027,7 @@
         <v>546728.5702519452</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2959,7 +3225,7 @@
         <v>535946.8921519452</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3291,7 @@
         <v>362734.6699519452</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3324,7 @@
         <v>302734.6699519452</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3423,7 @@
         <v>264270.4144519452</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3489,7 @@
         <v>180081.1953519452</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3522,7 @@
         <v>-305541.6232480548</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3555,7 @@
         <v>-1319942.214048055</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3454,7 +3720,7 @@
         <v>-1714729.029243955</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3553,7 +3819,7 @@
         <v>-1660608.396243955</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3852,7 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3885,7 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3918,7 @@
         <v>-1672504.738743955</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3951,7 @@
         <v>-1900720.728943955</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3984,7 @@
         <v>-1900493.744816971</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +4017,7 @@
         <v>-2032951.947216971</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +4050,7 @@
         <v>-2032951.947216971</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3982,7 +4248,7 @@
         <v>-2068462.024816971</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4281,7 @@
         <v>-2068452.024816971</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4314,7 @@
         <v>-2044536.758418569</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4807,10 +5073,14 @@
         <v>-2455675.277018568</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.38</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
@@ -4840,11 +5110,19 @@
         <v>-2455675.277018568</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4881,7 +5159,11 @@
       <c r="J136" t="n">
         <v>4.38</v>
       </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4916,13 +5198,9 @@
         <v>4.35</v>
       </c>
       <c r="J137" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>4.35</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4957,7 +5235,7 @@
         <v>4.39</v>
       </c>
       <c r="J138" t="n">
-        <v>4.38</v>
+        <v>4.35</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -4995,8 +5273,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5025,11 +5309,19 @@
         <v>-2281122.376518568</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J140" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5058,11 +5350,19 @@
         <v>-2281142.376518568</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5097,9 +5397,13 @@
         <v>4.3</v>
       </c>
       <c r="J142" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+        <v>4.35</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5128,15 +5432,17 @@
         <v>-2281132.376518568</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4.45</v>
+      </c>
       <c r="J143" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -5167,15 +5473,17 @@
         <v>-2443903.722218568</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.45</v>
+      </c>
       <c r="J144" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -5206,11 +5514,13 @@
         <v>-2443678.778398344</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.26</v>
+      </c>
       <c r="J145" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5249,7 +5559,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5284,11 +5594,13 @@
         <v>-2383652.741098344</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>4.25</v>
+      </c>
       <c r="J147" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5327,7 +5639,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5368,7 +5680,7 @@
         <v>4.27</v>
       </c>
       <c r="J149" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5407,7 +5719,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5442,11 +5754,13 @@
         <v>-2194149.472498344</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>4.43</v>
+      </c>
       <c r="J151" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5481,11 +5795,13 @@
         <v>-2194137.472498344</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>4.43</v>
+      </c>
       <c r="J152" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5520,11 +5836,13 @@
         <v>-2259320.394498344</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4.45</v>
+      </c>
       <c r="J153" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5559,11 +5877,13 @@
         <v>-2259308.394498344</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4.42</v>
+      </c>
       <c r="J154" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5598,11 +5918,13 @@
         <v>-2259355.647898343</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.46</v>
+      </c>
       <c r="J155" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5637,11 +5959,13 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4.44</v>
+      </c>
       <c r="J156" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5676,11 +6000,13 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4.42</v>
+      </c>
       <c r="J157" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5715,11 +6041,13 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4.42</v>
+      </c>
       <c r="J158" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5754,11 +6082,13 @@
         <v>-2283371.793498343</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4.42</v>
+      </c>
       <c r="J159" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5799,7 +6129,7 @@
         <v>4.37</v>
       </c>
       <c r="J160" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5840,7 +6170,7 @@
         <v>4.37</v>
       </c>
       <c r="J161" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5881,7 +6211,7 @@
         <v>4.38</v>
       </c>
       <c r="J162" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5916,11 +6246,13 @@
         <v>-1470590.976485731</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.4</v>
+      </c>
       <c r="J163" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>

--- a/BackTest/2019-10-30 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-30 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>18032.3191</v>
       </c>
       <c r="G2" t="n">
-        <v>76278.07019999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>1163.5587</v>
       </c>
       <c r="G3" t="n">
-        <v>75114.51149999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>75014.51149999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,1322 +533,1145 @@
         <v>621.7163</v>
       </c>
       <c r="G5" t="n">
-        <v>74392.79519999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13612.3091</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>74392.79519999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>27745.7499</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F7" t="n">
-        <v>13612.3091</v>
-      </c>
-      <c r="G7" t="n">
-        <v>60780.48609999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>27745.7499</v>
-      </c>
-      <c r="G8" t="n">
-        <v>33034.7362</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>381.1212</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" t="n">
-        <v>33084.7362</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>44635.7499</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F10" t="n">
-        <v>381.1212</v>
-      </c>
-      <c r="G10" t="n">
-        <v>32703.615</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F12" t="n">
+        <v>116439.1023</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F11" t="n">
-        <v>44635.7499</v>
-      </c>
-      <c r="G11" t="n">
-        <v>77339.3649</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F13" t="n">
+        <v>67598.34510000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F12" t="n">
-        <v>116439.1023</v>
-      </c>
-      <c r="G12" t="n">
-        <v>77339.3649</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>93878.8797</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F13" t="n">
-        <v>67598.34510000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>77339.3649</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8530.774299999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F14" t="n">
-        <v>93878.8797</v>
-      </c>
-      <c r="G14" t="n">
-        <v>77339.3649</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5876.5945</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8530.774299999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>77339.3649</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2541.6958</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5876.5945</v>
-      </c>
-      <c r="G16" t="n">
-        <v>77339.3649</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2382.9726</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2541.6958</v>
-      </c>
-      <c r="G17" t="n">
-        <v>77339.3649</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F19" t="n">
+        <v>83002.22719999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2382.9726</v>
-      </c>
-      <c r="G18" t="n">
-        <v>77339.3649</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19957.5122</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F19" t="n">
-        <v>83002.22719999999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-5662.862299999993</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>4.4</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="C21" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>67209.1896</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19957.5122</v>
-      </c>
-      <c r="G20" t="n">
-        <v>14294.64990000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K20" t="inlineStr">
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F22" t="n">
+        <v>30100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>67209.1896</v>
-      </c>
-      <c r="G21" t="n">
-        <v>81503.8395</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1703.0748</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8045.1843</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>4.35</v>
       </c>
-      <c r="D22" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F22" t="n">
-        <v>30100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>51403.8395</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1703.0748</v>
-      </c>
-      <c r="G23" t="n">
-        <v>51403.8395</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24357.2222</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F24" t="n">
-        <v>8045.1843</v>
-      </c>
-      <c r="G24" t="n">
-        <v>43358.6552</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7597.2325</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>4.32</v>
       </c>
-      <c r="D25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="C27" t="n">
         <v>4.32</v>
       </c>
-      <c r="F25" t="n">
-        <v>24357.2222</v>
-      </c>
-      <c r="G25" t="n">
-        <v>19001.433</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="D27" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7597.2325</v>
-      </c>
-      <c r="G26" t="n">
-        <v>11404.2005</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F28" t="n">
+        <v>35797.27</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G27" t="n">
-        <v>13404.2005</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F29" t="n">
+        <v>226319.9528</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
         <v>4.33</v>
       </c>
-      <c r="C28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F28" t="n">
-        <v>35797.27</v>
-      </c>
-      <c r="G28" t="n">
-        <v>49201.4705</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K28" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>4.33</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C31" t="n">
         <v>4.33</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D31" t="n">
         <v>4.33</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E31" t="n">
         <v>4.33</v>
       </c>
-      <c r="F29" t="n">
-        <v>226319.9528</v>
-      </c>
-      <c r="G29" t="n">
-        <v>49201.4705</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="F31" t="n">
+        <v>26152.0726</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
-      </c>
-      <c r="G30" t="n">
-        <v>49211.4705</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>4.33</v>
       </c>
-      <c r="J30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="C32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F32" t="n">
+        <v>47.9274</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F33" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
         <v>4.33</v>
       </c>
-      <c r="C31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F31" t="n">
-        <v>26152.0726</v>
-      </c>
-      <c r="G31" t="n">
-        <v>23059.3979</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F32" t="n">
-        <v>47.9274</v>
-      </c>
-      <c r="G32" t="n">
-        <v>23059.3979</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F34" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F33" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>73059.3979</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F35" t="n">
+        <v>120753.7286</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>4.45</v>
       </c>
-      <c r="C34" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="C36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E36" t="n">
         <v>4.45</v>
       </c>
-      <c r="F34" t="n">
-        <v>130000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>203059.3979</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="F36" t="n">
+        <v>1428389.0178</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F35" t="n">
-        <v>120753.7286</v>
-      </c>
-      <c r="G35" t="n">
-        <v>82305.66929999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>115432.0844</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1428389.0178</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1510694.6871</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>115432.0844</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1510694.6871</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1896,24 +1693,17 @@
         <v>181369.0388</v>
       </c>
       <c r="G38" t="n">
-        <v>1692063.7259</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1.042727272727273</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1935,18 +1725,15 @@
         <v>100000</v>
       </c>
       <c r="G39" t="n">
-        <v>1592063.7259</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1968,18 +1755,15 @@
         <v>19092.8265</v>
       </c>
       <c r="G40" t="n">
-        <v>1572970.8994</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2001,18 +1785,15 @@
         <v>60000</v>
       </c>
       <c r="G41" t="n">
-        <v>1512970.8994</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2034,18 +1815,15 @@
         <v>90000</v>
       </c>
       <c r="G42" t="n">
-        <v>1422970.8994</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2067,18 +1845,15 @@
         <v>847000</v>
       </c>
       <c r="G43" t="n">
-        <v>575970.8994</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2100,18 +1875,15 @@
         <v>100000</v>
       </c>
       <c r="G44" t="n">
-        <v>575970.8994</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2133,18 +1905,15 @@
         <v>18394.2002</v>
       </c>
       <c r="G45" t="n">
-        <v>594365.0996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2166,18 +1935,15 @@
         <v>18452.0773</v>
       </c>
       <c r="G46" t="n">
-        <v>612817.1769</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2199,18 +1965,15 @@
         <v>58448.0171</v>
       </c>
       <c r="G47" t="n">
-        <v>554369.1598</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2232,18 +1995,15 @@
         <v>749449.4613</v>
       </c>
       <c r="G48" t="n">
-        <v>554369.1598</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2265,18 +2025,15 @@
         <v>13875.5119</v>
       </c>
       <c r="G49" t="n">
-        <v>540493.6479</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2298,18 +2055,15 @@
         <v>103761.2957</v>
       </c>
       <c r="G50" t="n">
-        <v>644254.9436</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2331,18 +2085,15 @@
         <v>26666.9672</v>
       </c>
       <c r="G51" t="n">
-        <v>644254.9436</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2364,18 +2115,15 @@
         <v>23360.785</v>
       </c>
       <c r="G52" t="n">
-        <v>644254.9436</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2397,18 +2145,15 @@
         <v>25071.4942</v>
       </c>
       <c r="G53" t="n">
-        <v>619183.4494</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2430,18 +2175,15 @@
         <v>94667.1292</v>
       </c>
       <c r="G54" t="n">
-        <v>713850.5786</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2463,18 +2205,15 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>713850.5786</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2496,18 +2235,15 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>713860.5786</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2529,18 +2265,15 @@
         <v>1025.0569</v>
       </c>
       <c r="G57" t="n">
-        <v>713860.5786</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2562,18 +2295,15 @@
         <v>18348.2146</v>
       </c>
       <c r="G58" t="n">
-        <v>695512.3640000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2595,18 +2325,15 @@
         <v>9482.7744</v>
       </c>
       <c r="G59" t="n">
-        <v>695512.3640000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2628,18 +2355,15 @@
         <v>94667.1292</v>
       </c>
       <c r="G60" t="n">
-        <v>600845.2348000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2661,18 +2385,15 @@
         <v>228.8329519450801</v>
       </c>
       <c r="G61" t="n">
-        <v>601074.0677519452</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2694,18 +2415,15 @@
         <v>4000</v>
       </c>
       <c r="G62" t="n">
-        <v>601074.0677519452</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2727,18 +2445,15 @@
         <v>75125.3988</v>
       </c>
       <c r="G63" t="n">
-        <v>676199.4665519452</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2760,18 +2475,15 @@
         <v>19635.5353</v>
       </c>
       <c r="G64" t="n">
-        <v>676199.4665519452</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2793,18 +2505,15 @@
         <v>42067.648</v>
       </c>
       <c r="G65" t="n">
-        <v>676199.4665519452</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2826,18 +2535,15 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>676209.4665519452</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2859,18 +2565,15 @@
         <v>4490</v>
       </c>
       <c r="G67" t="n">
-        <v>676209.4665519452</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2892,18 +2595,15 @@
         <v>9405.2863</v>
       </c>
       <c r="G68" t="n">
-        <v>685614.7528519452</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2925,18 +2625,15 @@
         <v>74596.9774</v>
       </c>
       <c r="G69" t="n">
-        <v>760211.7302519452</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2958,18 +2655,15 @@
         <v>7486.4332</v>
       </c>
       <c r="G70" t="n">
-        <v>767698.1634519452</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2991,18 +2685,15 @@
         <v>190969.5932</v>
       </c>
       <c r="G71" t="n">
-        <v>576728.5702519452</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3024,18 +2715,15 @@
         <v>30000</v>
       </c>
       <c r="G72" t="n">
-        <v>546728.5702519452</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3057,18 +2745,15 @@
         <v>37817.6759</v>
       </c>
       <c r="G73" t="n">
-        <v>508910.8943519451</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3090,18 +2775,15 @@
         <v>100000</v>
       </c>
       <c r="G74" t="n">
-        <v>508910.8943519451</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3123,18 +2805,15 @@
         <v>550</v>
       </c>
       <c r="G75" t="n">
-        <v>509460.8943519451</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3156,18 +2835,15 @@
         <v>7189.13</v>
       </c>
       <c r="G76" t="n">
-        <v>509460.8943519451</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3189,18 +2865,15 @@
         <v>26467.9978</v>
       </c>
       <c r="G77" t="n">
-        <v>535928.8921519452</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3222,18 +2895,15 @@
         <v>18</v>
       </c>
       <c r="G78" t="n">
-        <v>535946.8921519452</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3255,18 +2925,15 @@
         <v>82</v>
       </c>
       <c r="G79" t="n">
-        <v>535946.8921519452</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3288,18 +2955,15 @@
         <v>173212.2222</v>
       </c>
       <c r="G80" t="n">
-        <v>362734.6699519452</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3321,18 +2985,15 @@
         <v>60000</v>
       </c>
       <c r="G81" t="n">
-        <v>302734.6699519452</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3354,18 +3015,15 @@
         <v>681821.7088</v>
       </c>
       <c r="G82" t="n">
-        <v>302734.6699519452</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3387,18 +3045,15 @@
         <v>82</v>
       </c>
       <c r="G83" t="n">
-        <v>302816.6699519452</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3420,18 +3075,15 @@
         <v>38546.2555</v>
       </c>
       <c r="G84" t="n">
-        <v>264270.4144519452</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3453,18 +3105,15 @@
         <v>22573.3634</v>
       </c>
       <c r="G85" t="n">
-        <v>264270.4144519452</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3486,18 +3135,15 @@
         <v>84189.2191</v>
       </c>
       <c r="G86" t="n">
-        <v>180081.1953519452</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3519,18 +3165,15 @@
         <v>485622.8186</v>
       </c>
       <c r="G87" t="n">
-        <v>-305541.6232480548</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3195,15 @@
         <v>1014400.5908</v>
       </c>
       <c r="G88" t="n">
-        <v>-1319942.214048055</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3585,18 +3225,15 @@
         <v>138696.9951</v>
       </c>
       <c r="G89" t="n">
-        <v>-1319942.214048055</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3618,18 +3255,15 @@
         <v>311521.8824</v>
       </c>
       <c r="G90" t="n">
-        <v>-1631464.096448055</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3651,18 +3285,15 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>-1631474.096448055</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3684,18 +3315,15 @@
         <v>228.4738041002278</v>
       </c>
       <c r="G92" t="n">
-        <v>-1631245.622643955</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3717,18 +3345,15 @@
         <v>83483.4066</v>
       </c>
       <c r="G93" t="n">
-        <v>-1714729.029243955</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3750,18 +3375,15 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-1714719.029243955</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3783,18 +3405,15 @@
         <v>54110.633</v>
       </c>
       <c r="G95" t="n">
-        <v>-1660608.396243955</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3816,18 +3435,15 @@
         <v>14461.5124</v>
       </c>
       <c r="G96" t="n">
-        <v>-1660608.396243955</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3849,18 +3465,15 @@
         <v>11886.3425</v>
       </c>
       <c r="G97" t="n">
-        <v>-1672494.738743955</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3882,18 +3495,15 @@
         <v>8357.5555</v>
       </c>
       <c r="G98" t="n">
-        <v>-1672494.738743955</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3915,18 +3525,15 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>-1672504.738743955</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3948,18 +3555,15 @@
         <v>228215.9902</v>
       </c>
       <c r="G100" t="n">
-        <v>-1900720.728943955</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3981,18 +3585,15 @@
         <v>226.984126984127</v>
       </c>
       <c r="G101" t="n">
-        <v>-1900493.744816971</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4014,18 +3615,15 @@
         <v>132458.2024</v>
       </c>
       <c r="G102" t="n">
-        <v>-2032951.947216971</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4047,18 +3645,15 @@
         <v>0.0009</v>
       </c>
       <c r="G103" t="n">
-        <v>-2032951.947216971</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4080,18 +3675,15 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-2032941.947216971</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4113,18 +3705,15 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-2032951.947216971</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4146,18 +3735,15 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-2032941.947216971</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4179,18 +3765,15 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-2032931.947216971</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4212,18 +3795,15 @@
         <v>35520.0776</v>
       </c>
       <c r="G108" t="n">
-        <v>-2068452.024816971</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4245,18 +3825,15 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>-2068462.024816971</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4278,18 +3855,15 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-2068452.024816971</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4311,18 +3885,15 @@
         <v>23915.26639840183</v>
       </c>
       <c r="G111" t="n">
-        <v>-2044536.758418569</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4344,18 +3915,15 @@
         <v>39772.7272</v>
       </c>
       <c r="G112" t="n">
-        <v>-2004764.031218569</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4377,18 +3945,15 @@
         <v>197092.8644</v>
       </c>
       <c r="G113" t="n">
-        <v>-1807671.166818568</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4410,18 +3975,15 @@
         <v>18412.218</v>
       </c>
       <c r="G114" t="n">
-        <v>-1807671.166818568</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4443,18 +4005,15 @@
         <v>10000</v>
       </c>
       <c r="G115" t="n">
-        <v>-1807671.166818568</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4476,18 +4035,15 @@
         <v>1748.3146</v>
       </c>
       <c r="G116" t="n">
-        <v>-1805922.852218569</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4509,18 +4065,15 @@
         <v>100000</v>
       </c>
       <c r="G117" t="n">
-        <v>-1905922.852218569</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4542,18 +4095,15 @@
         <v>64884.989</v>
       </c>
       <c r="G118" t="n">
-        <v>-1841037.863218568</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4575,18 +4125,15 @@
         <v>69443.20789999999</v>
       </c>
       <c r="G119" t="n">
-        <v>-1910481.071118569</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4608,18 +4155,15 @@
         <v>83136.8821</v>
       </c>
       <c r="G120" t="n">
-        <v>-1827344.189018568</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4641,18 +4185,15 @@
         <v>24101.5695</v>
       </c>
       <c r="G121" t="n">
-        <v>-1851445.758518568</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4674,18 +4215,15 @@
         <v>1818</v>
       </c>
       <c r="G122" t="n">
-        <v>-1853263.758518568</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4707,18 +4245,15 @@
         <v>2000</v>
       </c>
       <c r="G123" t="n">
-        <v>-1851263.758518568</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4740,18 +4275,15 @@
         <v>5000</v>
       </c>
       <c r="G124" t="n">
-        <v>-1856263.758518568</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4773,18 +4305,15 @@
         <v>14126.7285</v>
       </c>
       <c r="G125" t="n">
-        <v>-1856263.758518568</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4806,18 +4335,15 @@
         <v>111443.2602</v>
       </c>
       <c r="G126" t="n">
-        <v>-1744820.498318569</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4839,18 +4365,15 @@
         <v>634391.1564</v>
       </c>
       <c r="G127" t="n">
-        <v>-2379211.654718569</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4872,18 +4395,15 @@
         <v>70000</v>
       </c>
       <c r="G128" t="n">
-        <v>-2449211.654718569</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4905,18 +4425,15 @@
         <v>32701.7944</v>
       </c>
       <c r="G129" t="n">
-        <v>-2481913.449118569</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4938,18 +4455,15 @@
         <v>26229.2725</v>
       </c>
       <c r="G130" t="n">
-        <v>-2455684.176618569</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4971,18 +4485,15 @@
         <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>-2455673.176618569</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5004,18 +4515,15 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>-2455663.176618569</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5037,18 +4545,15 @@
         <v>12.1004</v>
       </c>
       <c r="G133" t="n">
-        <v>-2455675.277018568</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5070,22 +4575,15 @@
         <v>9.8996</v>
       </c>
       <c r="G134" t="n">
-        <v>-2455675.277018568</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5107,26 +4605,15 @@
         <v>52880.5113</v>
       </c>
       <c r="G135" t="n">
-        <v>-2455675.277018568</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5148,26 +4635,15 @@
         <v>34975.066</v>
       </c>
       <c r="G136" t="n">
-        <v>-2490650.343018569</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5189,22 +4665,15 @@
         <v>45603.9342</v>
       </c>
       <c r="G137" t="n">
-        <v>-2445046.408818569</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J137" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5226,26 +4695,15 @@
         <v>117167.4115</v>
       </c>
       <c r="G138" t="n">
-        <v>-2327878.997318569</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J138" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5267,24 +4725,15 @@
         <v>26561.7628</v>
       </c>
       <c r="G139" t="n">
-        <v>-2301317.234518568</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5306,26 +4755,15 @@
         <v>20194.858</v>
       </c>
       <c r="G140" t="n">
-        <v>-2281122.376518568</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J140" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5347,26 +4785,15 @@
         <v>20</v>
       </c>
       <c r="G141" t="n">
-        <v>-2281142.376518568</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="J141" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5388,26 +4815,15 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>-2281132.376518568</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J142" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5429,26 +4845,15 @@
         <v>2965.3932</v>
       </c>
       <c r="G143" t="n">
-        <v>-2281132.376518568</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J143" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5470,26 +4875,15 @@
         <v>162771.3457</v>
       </c>
       <c r="G144" t="n">
-        <v>-2443903.722218568</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5511,26 +4905,15 @@
         <v>224.9438202247191</v>
       </c>
       <c r="G145" t="n">
-        <v>-2443678.778398344</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5552,24 +4935,15 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>-2443688.778398344</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5591,26 +4965,15 @@
         <v>60036.0373</v>
       </c>
       <c r="G147" t="n">
-        <v>-2383652.741098344</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5632,24 +4995,15 @@
         <v>926</v>
       </c>
       <c r="G148" t="n">
-        <v>-2382726.741098344</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5671,26 +5025,15 @@
         <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>-2382716.741098344</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5712,24 +5055,15 @@
         <v>188567.2686</v>
       </c>
       <c r="G150" t="n">
-        <v>-2194149.472498344</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5751,26 +5085,15 @@
         <v>48596.3882</v>
       </c>
       <c r="G151" t="n">
-        <v>-2194149.472498344</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5792,26 +5115,15 @@
         <v>12</v>
       </c>
       <c r="G152" t="n">
-        <v>-2194137.472498344</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5833,26 +5145,15 @@
         <v>65182.922</v>
       </c>
       <c r="G153" t="n">
-        <v>-2259320.394498344</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5874,26 +5175,15 @@
         <v>12</v>
       </c>
       <c r="G154" t="n">
-        <v>-2259308.394498344</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="J154" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5915,26 +5205,15 @@
         <v>47.2534</v>
       </c>
       <c r="G155" t="n">
-        <v>-2259355.647898343</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5956,26 +5235,15 @@
         <v>160.6674</v>
       </c>
       <c r="G156" t="n">
-        <v>-2259516.315298344</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5997,26 +5265,15 @@
         <v>90000</v>
       </c>
       <c r="G157" t="n">
-        <v>-2259516.315298344</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6038,26 +5295,15 @@
         <v>12465.1583</v>
       </c>
       <c r="G158" t="n">
-        <v>-2259516.315298344</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6079,26 +5325,15 @@
         <v>23855.4782</v>
       </c>
       <c r="G159" t="n">
-        <v>-2283371.793498343</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6120,26 +5355,15 @@
         <v>59201.7414</v>
       </c>
       <c r="G160" t="n">
-        <v>-2283371.793498343</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6161,26 +5385,15 @@
         <v>5156.5113</v>
       </c>
       <c r="G161" t="n">
-        <v>-2278215.282198343</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6202,26 +5415,15 @@
         <v>785326.5227</v>
       </c>
       <c r="G162" t="n">
-        <v>-1492888.759498343</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6243,26 +5445,15 @@
         <v>22297.78301261261</v>
       </c>
       <c r="G163" t="n">
-        <v>-1470590.976485731</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
